--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wireddin\Desktop\Temp3\MultiScaleTrajectories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B1035B-FFE6-4BD1-AFF6-6E7C678DF83E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71137B3-54E8-422A-9793-86D24A375C77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BB5079E-08C1-4904-9E6E-CD468056FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_12-01-2019" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="114">
   <si>
     <t>Lenovo P50</t>
   </si>
@@ -353,6 +356,27 @@
   <si>
     <t>n = 2500</t>
   </si>
+  <si>
+    <t>Computed using Convex Hulls</t>
+  </si>
+  <si>
+    <t>SSB: Compact min - level</t>
+  </si>
+  <si>
+    <t>p = 1</t>
+  </si>
+  <si>
+    <t>f = m'th root of max zoom factor</t>
+  </si>
+  <si>
+    <t>max zoom factor = (200 * 1024)</t>
+  </si>
+  <si>
+    <t>Max zoom factor extrapolated from 1024 at p = 0.005</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
 </sst>
 </file>
 
@@ -422,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -478,6 +502,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1792,7 +1835,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2431,7 +2474,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -4914,7 +4957,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -11314,31 +11357,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.40662366666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.0686086666666661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.1232666666666677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.403933333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17.876300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22.895433333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>28.319500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>33.072800000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.580433333333334</c:v>
+                  <c:v>40.046500000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>48.674666666666667</c:v>
@@ -11440,31 +11483,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.12467433333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.90161399999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.836775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6369033333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.4902470000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.4096133333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.7545666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.212299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7381333333333333</c:v>
+                  <c:v>7.7372333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10.289699999999998</c:v>
@@ -11566,31 +11609,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.0864333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.4473333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.0615333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.9299333333333326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.8787333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.049333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>13.093833333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>13.4779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4393333333333338</c:v>
+                  <c:v>15.366633333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.818533333333331</c:v>
@@ -11688,31 +11731,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8630666666666675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.4143230000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.8429333333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.881545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.0955666666666675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.2607666666666679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.1354666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5101000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4789666666666665</c:v>
+                  <c:v>7.0185000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.7101333333333342</c:v>
@@ -11794,7 +11837,7 @@
                   <a:rPr lang="nl-NL" sz="1500" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Maximum number of scales (m)</a:t>
+                  <a:t>Number of scales (m)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1500">
                   <a:effectLst/>
@@ -11806,8 +11849,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36509997283880891"/>
-              <c:y val="0.92421311997185518"/>
+              <c:x val="0.39352519340878817"/>
+              <c:y val="0.93194592353232364"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12031,10 +12074,2726 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2503274305681196E-2"/>
+          <c:x val="2.4880275401669545E-2"/>
           <c:y val="0"/>
           <c:w val="0.96796636054255558"/>
           <c:h val="0.11063394670574909"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1483171382351801E-2"/>
+          <c:y val="0.13420030716316933"/>
+          <c:w val="0.88285460603306742"/>
+          <c:h val="0.71333480683974893"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$Z$368</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chin-Chan (Graph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$H$316:$H$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$K$316:$K$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3310499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9348134999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8319000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.8612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.45815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.1629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.22935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.078199999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.951499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8272-41AD-AE45-B67921E00BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$AE$368</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chin-Chan (Intervals)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$H$316:$H$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$O$316:$O$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1828E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4075120000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6484814999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9299189999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4593499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3648499999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5442499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.254300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.248699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.396000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8272-41AD-AE45-B67921E00BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$AN$313</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Convex hull (Graph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$H$316:$H$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$S$316:$S$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1174730000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0327000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3019500000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.242750000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.446750000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.706099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.637650000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.814250000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8272-41AD-AE45-B67921E00BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$AS$313</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Convex hull (Intervals)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$H$316:$H$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$X$316:$X$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0219555000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8998500000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2381000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5292499999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4689499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2806499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4113000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.172750000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.1532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.40185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8272-41AD-AE45-B67921E00BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1583821360"/>
+        <c:axId val="-1583833872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1583821360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1688"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1500" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of scales (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39352519340878817"/>
+              <c:y val="0.93194592353232364"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1583833872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="187"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1583833872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1500" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Running time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1165718955970477E-3"/>
+              <c:y val="0.32044392782779646"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1583821360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.537324296770641E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.96796636054255558"/>
+          <c:h val="0.11063394670574909"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10035367064985103"/>
+          <c:y val="9.8113538917464646E-2"/>
+          <c:w val="0.78705937240501334"/>
+          <c:h val="0.74942158300041029"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$H$460:$M$460</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shortcuts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$G$463:$G$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.9998764046401235E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6588344381193831E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0575216473774254E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6355465074500556E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0387296673720685E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9145602302323832E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.528868954384543E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5043219328271356E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988601547045716E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2097086912079614E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0728791267595739E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5070277123839464E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3836763459105538E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5503572167104624E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7007538663579922E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6643105394393308E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15969837872409545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29435200932623734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54254217285501161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$N$463:$N$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2527.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2549.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3254.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11859.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83500.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>345192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>780715.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1307567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1673281.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2200308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3106659.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3123750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE98-4713-BCAF-6A8FC37D4392}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1583821360"/>
+        <c:axId val="-1583833872"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$T$460:$Y$460</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shortcut Intervals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$G$463:$G$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.9998764046401235E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6588344381193831E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0575216473774254E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6355465074500556E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0387296673720685E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9145602302323832E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.528868954384543E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5043219328271356E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988601547045716E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2097086912079614E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0728791267595739E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5070277123839464E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3836763459105538E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5503572167104624E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7007538663579922E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6643105394393308E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15969837872409545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29435200932623734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54254217285501161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$Z$463:$Z$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2596.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2664.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4422.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5280.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5935.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6583.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8210.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8027.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9797.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13906</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7684.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE98-4713-BCAF-6A8FC37D4392}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="888945488"/>
+        <c:axId val="888950080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1583821360"/>
+        <c:scaling>
+          <c:logBase val="7"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1600" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Detail factor (d)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1600" b="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38407713234914864"/>
+              <c:y val="0.92144829122603644"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1583833872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1583833872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1500" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1500" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> of shortcuts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1165494583222002E-3"/>
+              <c:y val="0.22556033599256933"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1583821360"/>
+        <c:crossesAt val="8.5000000000000033E-6"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="888950080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="0">
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average number of shortcut intervals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95062881865492432"/>
+              <c:y val="9.8113538917464646E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888945488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="888945488"/>
+        <c:scaling>
+          <c:logBase val="7"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="888950080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16332643150593523"/>
+          <c:y val="0"/>
+          <c:w val="0.66621399823871363"/>
+          <c:h val="7.0607286553597465E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7864929411241253E-2"/>
+          <c:y val="9.8113538917464646E-2"/>
+          <c:w val="0.78954810643222995"/>
+          <c:h val="0.74942158300041029"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$H$460:$M$460</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shortcuts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$G$463:$G$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.9998764046401235E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6588344381193831E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0575216473774254E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6355465074500556E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0387296673720685E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9145602302323832E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.528868954384543E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5043219328271356E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988601547045716E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2097086912079614E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0728791267595739E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5070277123839464E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3836763459105538E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5503572167104624E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7007538663579922E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6643105394393308E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15969837872409545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29435200932623734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54254217285501161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$O$463:$O$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5730.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7075.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9412.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13259.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29200.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75894.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125062.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190646.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>345911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635502.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1089704.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1676090.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2306780.6666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2616520.6666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2981149</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3123750</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3123750</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3123750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56AD-40B7-B6D9-38B86789B44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1583821360"/>
+        <c:axId val="-1583833872"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results_12-01-2019'!$T$460:$Y$460</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shortcut Intervals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$G$463:$G$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.9998764046401235E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6588344381193831E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0575216473774254E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6355465074500556E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0387296673720685E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9145602302323832E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.528868954384543E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5043219328271356E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988601547045716E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2097086912079614E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0728791267595739E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5070277123839464E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3836763459105538E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5503572167104624E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7007538663579922E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6643105394393308E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15969837872409545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29435200932623734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54254217285501161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Results_12-01-2019'!$AA$463:$AA$482</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3452.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4638.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5546.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6025.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6843</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7363.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5069.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56AD-40B7-B6D9-38B86789B44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="888945488"/>
+        <c:axId val="888950080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1583821360"/>
+        <c:scaling>
+          <c:logBase val="7"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Detail factor (d)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48033789244021202"/>
+              <c:y val="0.93158866326419809"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1583833872"/>
+        <c:crossesAt val="1.0000000000000004E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1583833872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1500" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1500" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> of shortcuts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1165359311593648E-3"/>
+              <c:y val="0.19597449214172699"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1583821360"/>
+        <c:crossesAt val="1.0000000000000004E-6"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="888950080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="0">
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average number of shortcut intervals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95062881865492432"/>
+              <c:y val="9.8113538917464646E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888945488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="888945488"/>
+        <c:scaling>
+          <c:logBase val="7"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="888950080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14750966629343243"/>
+          <c:y val="0"/>
+          <c:w val="0.70672817602376437"/>
+          <c:h val="7.0607286553597465E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -14057,7 +16816,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -14815,7 +17574,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -15440,7 +18199,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -17840,6 +20599,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -24092,6 +26971,1302 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28458,16 +32633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>652687</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>667840</xdr:colOff>
       <xdr:row>331</xdr:row>
-      <xdr:rowOff>32079</xdr:rowOff>
+      <xdr:rowOff>25585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>843643</xdr:colOff>
-      <xdr:row>357</xdr:row>
-      <xdr:rowOff>6102</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>285130</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>190108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28494,7 +32669,543 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787977</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>171739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476705</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>145762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FC0315-B549-44C6-9468-92EA67A901C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1091045</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>37158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461070</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>93189</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4DFCF6-F40B-41F4-A79E-ADC9DD322FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>689588</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1002593</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>22059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA1FDBE-56AD-46C6-9286-63870D14090E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Results_12-01-2019"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="151">
+          <cell r="H151" t="str">
+            <v>Shortcuts</v>
+          </cell>
+          <cell r="T151" t="str">
+            <v>Shortcut Intervals</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="F154">
+            <v>20</v>
+          </cell>
+          <cell r="G154">
+            <v>8.9998764046401235E-6</v>
+          </cell>
+          <cell r="N154">
+            <v>2527.5</v>
+          </cell>
+          <cell r="O154">
+            <v>5730.333333333333</v>
+          </cell>
+          <cell r="Z154">
+            <v>2527</v>
+          </cell>
+          <cell r="AA154">
+            <v>3452.6666666666665</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="F155">
+            <v>19</v>
+          </cell>
+          <cell r="G155">
+            <v>1.6588344381193831E-5</v>
+          </cell>
+          <cell r="N155">
+            <v>2549.5</v>
+          </cell>
+          <cell r="O155">
+            <v>7075.333333333333</v>
+          </cell>
+          <cell r="Z155">
+            <v>2549</v>
+          </cell>
+          <cell r="AA155">
+            <v>3812</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="F156">
+            <v>18</v>
+          </cell>
+          <cell r="G156">
+            <v>3.0575216473774254E-5</v>
+          </cell>
+          <cell r="N156">
+            <v>2599</v>
+          </cell>
+          <cell r="O156">
+            <v>9412.6666666666661</v>
+          </cell>
+          <cell r="Z156">
+            <v>2596.5</v>
+          </cell>
+          <cell r="AA156">
+            <v>4202</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="F157">
+            <v>17</v>
+          </cell>
+          <cell r="G157">
+            <v>5.6355465074500556E-5</v>
+          </cell>
+          <cell r="N157">
+            <v>2678</v>
+          </cell>
+          <cell r="O157">
+            <v>13259.666666666666</v>
+          </cell>
+          <cell r="Z157">
+            <v>2664.5</v>
+          </cell>
+          <cell r="AA157">
+            <v>4638.666666666667</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="F158">
+            <v>16</v>
+          </cell>
+          <cell r="G158">
+            <v>1.0387296673720685E-4</v>
+          </cell>
+          <cell r="N158">
+            <v>2865</v>
+          </cell>
+          <cell r="O158">
+            <v>18796</v>
+          </cell>
+          <cell r="Z158">
+            <v>2816</v>
+          </cell>
+          <cell r="AA158">
+            <v>5040</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="F159">
+            <v>15</v>
+          </cell>
+          <cell r="G159">
+            <v>1.9145602302323832E-4</v>
+          </cell>
+          <cell r="N159">
+            <v>3254.5</v>
+          </cell>
+          <cell r="O159">
+            <v>29200.666666666668</v>
+          </cell>
+          <cell r="Z159">
+            <v>3096</v>
+          </cell>
+          <cell r="AA159">
+            <v>5546.333333333333</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="F160">
+            <v>14</v>
+          </cell>
+          <cell r="G160">
+            <v>3.528868954384543E-4</v>
+          </cell>
+          <cell r="N160">
+            <v>4273</v>
+          </cell>
+          <cell r="O160">
+            <v>48351</v>
+          </cell>
+          <cell r="Z160">
+            <v>3638</v>
+          </cell>
+          <cell r="AA160">
+            <v>5839</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="F161">
+            <v>13</v>
+          </cell>
+          <cell r="G161">
+            <v>6.5043219328271356E-4</v>
+          </cell>
+          <cell r="N161">
+            <v>6572</v>
+          </cell>
+          <cell r="O161">
+            <v>75894.666666666672</v>
+          </cell>
+          <cell r="Z161">
+            <v>4422.5</v>
+          </cell>
+          <cell r="AA161">
+            <v>6025.333333333333</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="F162">
+            <v>12</v>
+          </cell>
+          <cell r="G162">
+            <v>1.1988601547045716E-3</v>
+          </cell>
+          <cell r="N162">
+            <v>11859.5</v>
+          </cell>
+          <cell r="O162">
+            <v>125062.66666666667</v>
+          </cell>
+          <cell r="Z162">
+            <v>5280.5</v>
+          </cell>
+          <cell r="AA162">
+            <v>6020</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="F163">
+            <v>11</v>
+          </cell>
+          <cell r="G163">
+            <v>2.2097086912079614E-3</v>
+          </cell>
+          <cell r="N163">
+            <v>21531</v>
+          </cell>
+          <cell r="O163">
+            <v>190646.66666666666</v>
+          </cell>
+          <cell r="Z163">
+            <v>5935.5</v>
+          </cell>
+          <cell r="AA163">
+            <v>6723</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="F164">
+            <v>10</v>
+          </cell>
+          <cell r="G164">
+            <v>4.0728791267595739E-3</v>
+          </cell>
+          <cell r="N164">
+            <v>40184</v>
+          </cell>
+          <cell r="O164">
+            <v>345911</v>
+          </cell>
+          <cell r="Z164">
+            <v>6583.5</v>
+          </cell>
+          <cell r="AA164">
+            <v>6557</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="F165">
+            <v>9</v>
+          </cell>
+          <cell r="G165">
+            <v>7.5070277123839464E-3</v>
+          </cell>
+          <cell r="N165">
+            <v>83500.5</v>
+          </cell>
+          <cell r="O165">
+            <v>635502.66666666663</v>
+          </cell>
+          <cell r="Z165">
+            <v>8210.5</v>
+          </cell>
+          <cell r="AA165">
+            <v>6843</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="F166">
+            <v>8</v>
+          </cell>
+          <cell r="G166">
+            <v>1.3836763459105538E-2</v>
+          </cell>
+          <cell r="N166">
+            <v>174255</v>
+          </cell>
+          <cell r="O166">
+            <v>1089704.3333333333</v>
+          </cell>
+          <cell r="Z166">
+            <v>8027.5</v>
+          </cell>
+          <cell r="AA166">
+            <v>7363.333333333333</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="F167">
+            <v>7</v>
+          </cell>
+          <cell r="G167">
+            <v>2.5503572167104624E-2</v>
+          </cell>
+          <cell r="N167">
+            <v>345192</v>
+          </cell>
+          <cell r="O167">
+            <v>1676090.3333333333</v>
+          </cell>
+          <cell r="Z167">
+            <v>9797.5</v>
+          </cell>
+          <cell r="AA167">
+            <v>6112</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="F168">
+            <v>6</v>
+          </cell>
+          <cell r="G168">
+            <v>4.7007538663579922E-2</v>
+          </cell>
+          <cell r="N168">
+            <v>780715.5</v>
+          </cell>
+          <cell r="O168">
+            <v>2306780.6666666665</v>
+          </cell>
+          <cell r="Z168">
+            <v>13906</v>
+          </cell>
+          <cell r="AA168">
+            <v>5207</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="F169">
+            <v>5</v>
+          </cell>
+          <cell r="G169">
+            <v>8.6643105394393308E-2</v>
+          </cell>
+          <cell r="N169">
+            <v>1307567</v>
+          </cell>
+          <cell r="O169">
+            <v>2616520.6666666665</v>
+          </cell>
+          <cell r="Z169">
+            <v>7684.5</v>
+          </cell>
+          <cell r="AA169">
+            <v>5069.666666666667</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="F170">
+            <v>4</v>
+          </cell>
+          <cell r="G170">
+            <v>0.15969837872409545</v>
+          </cell>
+          <cell r="N170">
+            <v>1673281.5</v>
+          </cell>
+          <cell r="O170">
+            <v>2981149</v>
+          </cell>
+          <cell r="Z170">
+            <v>6835</v>
+          </cell>
+          <cell r="AA170">
+            <v>5017</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="F171">
+            <v>3</v>
+          </cell>
+          <cell r="G171">
+            <v>0.29435200932623734</v>
+          </cell>
+          <cell r="N171">
+            <v>2200308</v>
+          </cell>
+          <cell r="O171">
+            <v>3123750</v>
+          </cell>
+          <cell r="Z171">
+            <v>6997</v>
+          </cell>
+          <cell r="AA171">
+            <v>4997</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="F172">
+            <v>2</v>
+          </cell>
+          <cell r="G172">
+            <v>0.54254217285501161</v>
+          </cell>
+          <cell r="N172">
+            <v>3106659.5</v>
+          </cell>
+          <cell r="O172">
+            <v>3123750</v>
+          </cell>
+          <cell r="Z172">
+            <v>4997</v>
+          </cell>
+          <cell r="AA172">
+            <v>4997</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="F173">
+            <v>1</v>
+          </cell>
+          <cell r="G173">
+            <v>1</v>
+          </cell>
+          <cell r="N173">
+            <v>3123750</v>
+          </cell>
+          <cell r="O173">
+            <v>3123750</v>
+          </cell>
+          <cell r="Z173">
+            <v>4997</v>
+          </cell>
+          <cell r="AA173">
+            <v>4997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28794,10 +33505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753973A-39F3-4A5A-8F84-8DE76CF40729}">
-  <dimension ref="A1:ED430"/>
+  <dimension ref="A1:ED508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J295" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE323" sqref="AE323"/>
+    <sheetView tabSelected="1" topLeftCell="F343" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S382" sqref="S382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40394,789 +45105,1306 @@
         <v>28377</v>
       </c>
     </row>
-    <row r="307" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="G307" s="9"/>
-      <c r="H307" s="9"/>
-      <c r="I307" s="9"/>
-      <c r="J307" s="9"/>
-      <c r="K307" s="9"/>
-      <c r="L307" s="9"/>
-      <c r="M307" s="9"/>
-      <c r="N307" s="9"/>
-      <c r="O307" s="9"/>
-      <c r="P307" s="9"/>
-      <c r="Q307" s="9"/>
-      <c r="R307" s="9"/>
-      <c r="S307" s="9"/>
-      <c r="T307" s="9"/>
-      <c r="U307" s="9"/>
-      <c r="V307" s="9"/>
-      <c r="W307" s="9"/>
-      <c r="X307" s="9"/>
-      <c r="Y307" s="9"/>
-      <c r="Z307" s="9"/>
-      <c r="AA307" s="9"/>
-      <c r="AB307" s="9"/>
-      <c r="AC307" s="9"/>
-      <c r="AD307" s="9"/>
-      <c r="AE307" s="9"/>
-      <c r="AF307" s="9"/>
-      <c r="AG307" s="9"/>
-      <c r="AH307" s="9"/>
-      <c r="AI307" s="9"/>
-      <c r="AJ307" s="9"/>
-      <c r="AK307" s="9"/>
-      <c r="AL307" s="9"/>
-      <c r="AM307" s="9"/>
-      <c r="AN307" s="9"/>
-      <c r="AO307" s="9"/>
-      <c r="AP307" s="9"/>
-      <c r="AQ307" s="9"/>
-      <c r="AR307" s="9"/>
-      <c r="AS307" s="9"/>
-      <c r="AT307" s="9"/>
-      <c r="AU307" s="9"/>
-      <c r="AV307" s="9"/>
-      <c r="AW307" s="9"/>
-      <c r="AX307" s="9"/>
-      <c r="AY307" s="9"/>
+    <row r="307" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G307" s="25"/>
+      <c r="H307" s="25"/>
+      <c r="I307" s="25"/>
+      <c r="J307" s="25"/>
+      <c r="K307" s="25"/>
+      <c r="L307" s="25"/>
+      <c r="M307" s="25"/>
+      <c r="N307" s="25"/>
+      <c r="O307" s="25"/>
+      <c r="P307" s="25"/>
+      <c r="Q307" s="25"/>
+      <c r="R307" s="25"/>
+      <c r="S307" s="25"/>
+      <c r="T307" s="25"/>
+      <c r="U307" s="25"/>
+      <c r="V307" s="25"/>
+      <c r="W307" s="25"/>
+      <c r="X307" s="25"/>
+      <c r="Y307" s="25"/>
+      <c r="Z307" s="25"/>
+      <c r="AA307" s="25"/>
+      <c r="AB307" s="25"/>
+      <c r="AC307" s="25"/>
+      <c r="AD307" s="25"/>
+      <c r="AE307" s="25"/>
+      <c r="AF307" s="25"/>
+      <c r="AG307" s="25"/>
+      <c r="AH307" s="25"/>
+      <c r="AI307" s="25"/>
+      <c r="AJ307" s="25"/>
+      <c r="AK307" s="25"/>
+      <c r="AL307" s="25"/>
+      <c r="AM307" s="25"/>
+      <c r="AN307" s="25"/>
+      <c r="AO307" s="25"/>
+      <c r="AP307" s="25"/>
+      <c r="AQ307" s="25"/>
+      <c r="AR307" s="25"/>
+      <c r="AS307" s="25"/>
+      <c r="AT307" s="25"/>
+      <c r="AU307" s="25"/>
+      <c r="AV307" s="25"/>
+      <c r="AW307" s="25"/>
+      <c r="AX307" s="25"/>
+      <c r="AY307" s="25"/>
     </row>
-    <row r="309" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="I309" s="17"/>
-      <c r="J309" s="17"/>
-      <c r="K309" s="17"/>
-      <c r="L309" s="17"/>
-      <c r="M309" s="17"/>
-      <c r="N309" s="17"/>
-      <c r="O309" s="17"/>
-      <c r="P309" s="17"/>
-      <c r="Q309" s="17"/>
-      <c r="R309" s="17"/>
-      <c r="S309" s="17"/>
-      <c r="T309" s="17"/>
-      <c r="U309" s="17"/>
+    <row r="308" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I309" s="18"/>
+      <c r="J309" s="18"/>
+      <c r="K309" s="18"/>
+      <c r="L309" s="18"/>
+      <c r="M309" s="18"/>
+      <c r="N309" s="18"/>
+      <c r="O309" s="18"/>
+      <c r="P309" s="18"/>
+      <c r="Q309" s="18"/>
+      <c r="R309" s="18"/>
+      <c r="S309" s="18"/>
+      <c r="T309" s="18"/>
+      <c r="U309" s="18"/>
     </row>
-    <row r="313" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="I313" s="1" t="s">
+    <row r="310" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I313" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M313" s="1" t="s">
+      <c r="M313" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q313" s="1" t="s">
+      <c r="Q313" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="V313" s="1" t="s">
+      <c r="V313" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AD313" s="1" t="s">
+      <c r="AD313" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AI313" s="1" t="s">
+      <c r="AE313" s="18"/>
+      <c r="AF313" s="18"/>
+      <c r="AG313" s="18"/>
+      <c r="AI313" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AN313" s="1" t="s">
+      <c r="AJ313" s="18"/>
+      <c r="AK313" s="18"/>
+      <c r="AL313" s="18"/>
+      <c r="AN313" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AS313" s="1" t="s">
+      <c r="AO313" s="18"/>
+      <c r="AP313" s="18"/>
+      <c r="AQ313" s="18"/>
+      <c r="AS313" s="18" t="s">
         <v>91</v>
       </c>
+      <c r="AT313" s="18"/>
+      <c r="AU313" s="18"/>
+      <c r="AV313" s="18"/>
     </row>
-    <row r="314" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="H314" s="1" t="s">
+    <row r="314" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H314" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I314" s="1" t="s">
+      <c r="I314" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="J314" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M314" s="1" t="s">
+      <c r="M314" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N314" s="1" t="s">
+      <c r="N314" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q314" s="1" t="s">
+      <c r="Q314" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R314" s="1" t="s">
+      <c r="R314" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V314" s="1" t="s">
+      <c r="V314" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W314" s="1" t="s">
+      <c r="W314" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC314" s="1" t="s">
+      <c r="AC314" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AD314" s="1" t="s">
+      <c r="AD314" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AE314" s="1" t="s">
+      <c r="AE314" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AF314" s="1" t="s">
+      <c r="AF314" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AI314" s="1" t="s">
+      <c r="AI314" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AJ314" s="1" t="s">
+      <c r="AJ314" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AK314" s="1" t="s">
+      <c r="AK314" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AN314" s="1" t="s">
+      <c r="AN314" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AO314" s="1" t="s">
+      <c r="AO314" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AP314" s="1" t="s">
+      <c r="AP314" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AS314" s="1" t="s">
+      <c r="AS314" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AT314" s="1" t="s">
+      <c r="AT314" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AU314" s="1" t="s">
+      <c r="AU314" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="E315" s="1" t="s">
+    <row r="315" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E315" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I315" s="1" t="s">
+      <c r="I315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J315" s="1" t="s">
+      <c r="J315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K315" s="1" t="s">
+      <c r="K315" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="M315" s="1" t="s">
+      <c r="M315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N315" s="1" t="s">
+      <c r="N315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O315" s="1" t="s">
+      <c r="O315" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="S315" s="1" t="s">
+      <c r="S315" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="X315" s="1" t="s">
+      <c r="X315" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AD315" s="1" t="s">
+      <c r="AD315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AE315" s="1" t="s">
+      <c r="AE315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AF315" s="1" t="s">
+      <c r="AF315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AG315" s="1" t="s">
+      <c r="AG315" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AI315" s="1" t="s">
+      <c r="AI315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AJ315" s="1" t="s">
+      <c r="AJ315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AK315" s="1" t="s">
+      <c r="AK315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AL315" s="1" t="s">
+      <c r="AL315" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AN315" s="1" t="s">
+      <c r="AN315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AO315" s="1" t="s">
+      <c r="AO315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AP315" s="1" t="s">
+      <c r="AP315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AQ315" s="1" t="s">
+      <c r="AQ315" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AS315" s="1" t="s">
+      <c r="AS315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AT315" s="1" t="s">
+      <c r="AT315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AU315" s="1" t="s">
+      <c r="AU315" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AV315" s="1" t="s">
+      <c r="AV315" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="316" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="E316" s="1" t="s">
+    <row r="316" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E316" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H316" s="4">
+      <c r="H316" s="22">
         <v>1</v>
       </c>
-      <c r="I316" s="6"/>
-      <c r="J316" s="6"/>
-      <c r="K316" s="1">
+      <c r="I316" s="23">
+        <v>6.1203E-2</v>
+      </c>
+      <c r="J316" s="23">
+        <v>4.5418E-2</v>
+      </c>
+      <c r="K316" s="21">
         <f>SUM(I316:J316)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M316" s="6"/>
-      <c r="N316" s="6"/>
-      <c r="O316" s="1">
+        <v>5.3310499999999997E-2</v>
+      </c>
+      <c r="M316" s="23">
+        <v>2.47E-2</v>
+      </c>
+      <c r="N316" s="23">
+        <v>1.8956000000000001E-2</v>
+      </c>
+      <c r="O316" s="21">
         <f>SUM(M316:N316)/2</f>
-        <v>0</v>
-      </c>
-      <c r="P316" s="6"/>
-      <c r="R316" s="6"/>
-      <c r="S316" s="1">
+        <v>2.1828E-2</v>
+      </c>
+      <c r="P316" s="23"/>
+      <c r="Q316" s="23">
+        <v>5.3194999999999997</v>
+      </c>
+      <c r="R316" s="23">
+        <v>4.9154460000000002</v>
+      </c>
+      <c r="S316" s="21">
         <f>SUM(Q316:R316)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W316" s="6"/>
-      <c r="X316" s="1">
+        <v>5.1174730000000004</v>
+      </c>
+      <c r="V316" s="23">
+        <v>5.1294000000000004</v>
+      </c>
+      <c r="W316" s="23">
+        <v>4.9145110000000001</v>
+      </c>
+      <c r="X316" s="21">
         <f>SUM(V316:W316)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AC316" s="4">
+        <v>5.0219555000000007</v>
+      </c>
+      <c r="AC316" s="22">
         <v>1</v>
       </c>
-      <c r="AG316" s="1">
+      <c r="AD316" s="23">
+        <v>0.34064699999999998</v>
+      </c>
+      <c r="AE316" s="23">
+        <v>0.55414399999999997</v>
+      </c>
+      <c r="AF316" s="23">
+        <v>0.32507999999999998</v>
+      </c>
+      <c r="AG316" s="21">
         <f>SUM(AD316:AF316)/3</f>
-        <v>0</v>
-      </c>
-      <c r="AL316" s="1">
+        <v>0.40662366666666666</v>
+      </c>
+      <c r="AI316" s="23">
+        <v>0.10875799999999999</v>
+      </c>
+      <c r="AJ316" s="23">
+        <v>0.163608</v>
+      </c>
+      <c r="AK316" s="23">
+        <v>0.101657</v>
+      </c>
+      <c r="AL316" s="21">
         <f>SUM(AI316:AK316)/3</f>
-        <v>0</v>
-      </c>
-      <c r="AO316" s="6"/>
-      <c r="AQ316" s="1">
+        <v>0.12467433333333333</v>
+      </c>
+      <c r="AN316" s="21">
+        <v>5.5042999999999997</v>
+      </c>
+      <c r="AO316" s="23">
+        <v>6.968</v>
+      </c>
+      <c r="AP316" s="23">
+        <v>5.7869999999999999</v>
+      </c>
+      <c r="AQ316" s="21">
         <f>SUM(AN316:AP316)/3</f>
-        <v>0</v>
-      </c>
-      <c r="AV316" s="1">
+        <v>6.0864333333333329</v>
+      </c>
+      <c r="AS316" s="23">
+        <v>5.0872000000000002</v>
+      </c>
+      <c r="AT316" s="23">
+        <v>6.8680000000000003</v>
+      </c>
+      <c r="AU316" s="23">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="AV316" s="21">
         <f>SUM(AS316:AU316)/3</f>
-        <v>0</v>
+        <v>5.8630666666666675</v>
       </c>
     </row>
-    <row r="317" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="E317" s="1" t="s">
+    <row r="317" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E317" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H317" s="4">
+      <c r="H317" s="22">
+        <v>188</v>
+      </c>
+      <c r="I317" s="23">
+        <v>4.7351919999999996</v>
+      </c>
+      <c r="J317" s="23">
+        <v>3.1344349999999999</v>
+      </c>
+      <c r="K317" s="21">
+        <f t="shared" ref="K317:K325" si="82">SUM(I317:J317)/2</f>
+        <v>3.9348134999999997</v>
+      </c>
+      <c r="M317" s="23">
+        <v>1.5765979999999999</v>
+      </c>
+      <c r="N317" s="23">
+        <v>1.238426</v>
+      </c>
+      <c r="O317" s="21">
+        <f t="shared" ref="O317:O324" si="83">SUM(M317:N317)/2</f>
+        <v>1.4075120000000001</v>
+      </c>
+      <c r="P317" s="23"/>
+      <c r="Q317" s="23">
+        <v>7.3055000000000003</v>
+      </c>
+      <c r="R317" s="23">
+        <v>6.7599</v>
+      </c>
+      <c r="S317" s="21">
+        <f t="shared" ref="S317:S325" si="84">SUM(Q317:R317)/2</f>
+        <v>7.0327000000000002</v>
+      </c>
+      <c r="V317" s="23">
+        <v>5.6710000000000003</v>
+      </c>
+      <c r="W317" s="23">
+        <v>6.1287000000000003</v>
+      </c>
+      <c r="X317" s="21">
+        <f t="shared" ref="X317:X325" si="85">SUM(V317:W317)/2</f>
+        <v>5.8998500000000007</v>
+      </c>
+      <c r="AC317" s="22">
+        <v>33</v>
+      </c>
+      <c r="AD317" s="23">
+        <v>3.5031469999999998</v>
+      </c>
+      <c r="AE317" s="23">
+        <v>4.4709729999999999</v>
+      </c>
+      <c r="AF317" s="23">
+        <v>4.231706</v>
+      </c>
+      <c r="AG317" s="21">
+        <f t="shared" ref="AG317:AG325" si="86">SUM(AD317:AF317)/3</f>
+        <v>4.0686086666666661</v>
+      </c>
+      <c r="AI317" s="23">
+        <v>0.74737100000000001</v>
+      </c>
+      <c r="AJ317" s="23">
+        <v>1.0446279999999999</v>
+      </c>
+      <c r="AK317" s="23">
+        <v>0.91284299999999996</v>
+      </c>
+      <c r="AL317" s="21">
+        <f t="shared" ref="AL317:AL325" si="87">SUM(AI317:AK317)/3</f>
+        <v>0.90161399999999992</v>
+      </c>
+      <c r="AN317" s="23">
+        <v>5.7229999999999999</v>
+      </c>
+      <c r="AO317" s="23">
+        <v>7.1821000000000002</v>
+      </c>
+      <c r="AP317" s="21">
+        <v>6.4368999999999996</v>
+      </c>
+      <c r="AQ317" s="21">
+        <f t="shared" ref="AQ317:AQ325" si="88">SUM(AN317:AP317)/3</f>
+        <v>6.4473333333333329</v>
+      </c>
+      <c r="AS317" s="23">
+        <v>4.7217690000000001</v>
+      </c>
+      <c r="AT317" s="23">
+        <v>6.1666999999999996</v>
+      </c>
+      <c r="AU317" s="23">
+        <v>5.3544999999999998</v>
+      </c>
+      <c r="AV317" s="21">
+        <f t="shared" ref="AV317:AV325" si="89">SUM(AS317:AU317)/3</f>
+        <v>5.4143230000000004</v>
+      </c>
+    </row>
+    <row r="318" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E318" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H318" s="22">
+        <v>375</v>
+      </c>
+      <c r="I318" s="23">
+        <v>8.9998000000000005</v>
+      </c>
+      <c r="J318" s="23">
+        <v>6.6639999999999997</v>
+      </c>
+      <c r="K318" s="21">
+        <f t="shared" si="82"/>
+        <v>7.8319000000000001</v>
+      </c>
+      <c r="M318" s="23">
+        <v>2.8396910000000002</v>
+      </c>
+      <c r="N318" s="23">
+        <v>2.4572720000000001</v>
+      </c>
+      <c r="O318" s="21">
+        <f t="shared" si="83"/>
+        <v>2.6484814999999999</v>
+      </c>
+      <c r="P318" s="23"/>
+      <c r="Q318" s="23">
+        <v>8.5106999999999999</v>
+      </c>
+      <c r="R318" s="23">
+        <v>7.5838999999999999</v>
+      </c>
+      <c r="S318" s="21">
+        <f t="shared" si="84"/>
+        <v>8.0472999999999999</v>
+      </c>
+      <c r="V318" s="23">
+        <v>6.2983000000000002</v>
+      </c>
+      <c r="W318" s="23">
+        <v>6.1779000000000002</v>
+      </c>
+      <c r="X318" s="21">
+        <f t="shared" si="85"/>
+        <v>6.2381000000000002</v>
+      </c>
+      <c r="AC318" s="22">
+        <v>67</v>
+      </c>
+      <c r="AD318" s="23">
+        <v>8.2352000000000007</v>
+      </c>
+      <c r="AE318" s="23">
+        <v>9.2746999999999993</v>
+      </c>
+      <c r="AF318" s="23">
+        <v>9.8598999999999997</v>
+      </c>
+      <c r="AG318" s="21">
+        <f t="shared" si="86"/>
+        <v>9.1232666666666677</v>
+      </c>
+      <c r="AI318" s="23">
+        <v>1.645365</v>
+      </c>
+      <c r="AJ318" s="23">
+        <v>1.993773</v>
+      </c>
+      <c r="AK318" s="23">
+        <v>1.8711869999999999</v>
+      </c>
+      <c r="AL318" s="21">
+        <f t="shared" si="87"/>
+        <v>1.836775</v>
+      </c>
+      <c r="AN318" s="23">
+        <v>7.6757999999999997</v>
+      </c>
+      <c r="AO318" s="21">
+        <v>8.3976000000000006</v>
+      </c>
+      <c r="AP318" s="23">
+        <v>8.1112000000000002</v>
+      </c>
+      <c r="AQ318" s="21">
+        <f t="shared" si="88"/>
+        <v>8.0615333333333332</v>
+      </c>
+      <c r="AS318" s="23">
+        <v>5.3902000000000001</v>
+      </c>
+      <c r="AT318" s="23">
+        <v>6.3371000000000004</v>
+      </c>
+      <c r="AU318" s="23">
+        <v>5.8014999999999999</v>
+      </c>
+      <c r="AV318" s="21">
+        <f t="shared" si="89"/>
+        <v>5.8429333333333338</v>
+      </c>
+    </row>
+    <row r="319" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E319" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H319" s="21">
+        <v>563</v>
+      </c>
+      <c r="I319" s="23">
+        <v>13.61</v>
+      </c>
+      <c r="J319" s="23">
+        <v>10.112399999999999</v>
+      </c>
+      <c r="K319" s="21">
+        <f t="shared" si="82"/>
+        <v>11.8612</v>
+      </c>
+      <c r="M319" s="23">
+        <v>4.3346710000000002</v>
+      </c>
+      <c r="N319" s="23">
+        <v>3.5251670000000002</v>
+      </c>
+      <c r="O319" s="21">
+        <f t="shared" si="83"/>
+        <v>3.9299189999999999</v>
+      </c>
+      <c r="P319" s="23"/>
+      <c r="Q319" s="23">
+        <v>9.7468000000000004</v>
+      </c>
+      <c r="R319" s="23">
+        <v>8.8571000000000009</v>
+      </c>
+      <c r="S319" s="21">
+        <f t="shared" si="84"/>
+        <v>9.3019500000000015</v>
+      </c>
+      <c r="V319" s="23">
+        <v>6.5796999999999999</v>
+      </c>
+      <c r="W319" s="23">
+        <v>6.4787999999999997</v>
+      </c>
+      <c r="X319" s="21">
+        <f t="shared" si="85"/>
+        <v>6.5292499999999993</v>
+      </c>
+      <c r="AC319" s="21">
+        <v>100</v>
+      </c>
+      <c r="AD319" s="23">
+        <v>12.1083</v>
+      </c>
+      <c r="AE319" s="23">
+        <v>13.846399999999999</v>
+      </c>
+      <c r="AF319" s="23">
+        <v>14.257099999999999</v>
+      </c>
+      <c r="AG319" s="21">
+        <f t="shared" si="86"/>
+        <v>13.403933333333333</v>
+      </c>
+      <c r="AI319" s="23">
+        <v>2.1815099999999998</v>
+      </c>
+      <c r="AJ319" s="23">
+        <v>2.9618869999999999</v>
+      </c>
+      <c r="AK319" s="23">
+        <v>2.7673130000000001</v>
+      </c>
+      <c r="AL319" s="21">
+        <f t="shared" si="87"/>
+        <v>2.6369033333333332</v>
+      </c>
+      <c r="AN319" s="23">
+        <v>7.9394999999999998</v>
+      </c>
+      <c r="AO319" s="23">
+        <v>9.5031999999999996</v>
+      </c>
+      <c r="AP319" s="23">
+        <v>9.3470999999999993</v>
+      </c>
+      <c r="AQ319" s="21">
+        <f t="shared" si="88"/>
+        <v>8.9299333333333326</v>
+      </c>
+      <c r="AS319" s="23">
+        <v>4.9281350000000002</v>
+      </c>
+      <c r="AT319" s="23">
+        <v>6.556</v>
+      </c>
+      <c r="AU319" s="23">
+        <v>6.1604999999999999</v>
+      </c>
+      <c r="AV319" s="21">
+        <f t="shared" si="89"/>
+        <v>5.881545</v>
+      </c>
+    </row>
+    <row r="320" spans="5:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E320" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H320" s="22">
+        <v>750</v>
+      </c>
+      <c r="I320" s="23">
+        <v>18.808399999999999</v>
+      </c>
+      <c r="J320" s="23">
+        <v>14.107900000000001</v>
+      </c>
+      <c r="K320" s="21">
+        <f t="shared" si="82"/>
+        <v>16.45815</v>
+      </c>
+      <c r="M320" s="23">
+        <v>5.8240999999999996</v>
+      </c>
+      <c r="N320" s="23">
+        <v>5.0945999999999998</v>
+      </c>
+      <c r="O320" s="21">
+        <f t="shared" si="83"/>
+        <v>5.4593499999999997</v>
+      </c>
+      <c r="P320" s="23"/>
+      <c r="Q320" s="23">
+        <v>12.119300000000001</v>
+      </c>
+      <c r="R320" s="23">
+        <v>10.366199999999999</v>
+      </c>
+      <c r="S320" s="21">
+        <f t="shared" si="84"/>
+        <v>11.242750000000001</v>
+      </c>
+      <c r="V320" s="23">
+        <v>7.5472999999999999</v>
+      </c>
+      <c r="W320" s="23">
+        <v>7.3906000000000001</v>
+      </c>
+      <c r="X320" s="21">
+        <f t="shared" si="85"/>
+        <v>7.4689499999999995</v>
+      </c>
+      <c r="AC320" s="22">
+        <v>133</v>
+      </c>
+      <c r="AD320" s="23">
+        <v>15.9526</v>
+      </c>
+      <c r="AE320" s="23">
+        <v>18.616399999999999</v>
+      </c>
+      <c r="AF320" s="23">
+        <v>19.059899999999999</v>
+      </c>
+      <c r="AG320" s="21">
+        <f t="shared" si="86"/>
+        <v>17.876300000000001</v>
+      </c>
+      <c r="AI320" s="23">
+        <v>2.8671630000000001</v>
+      </c>
+      <c r="AJ320" s="23">
+        <v>3.9014950000000002</v>
+      </c>
+      <c r="AK320" s="23">
+        <v>3.702083</v>
+      </c>
+      <c r="AL320" s="21">
+        <f t="shared" si="87"/>
+        <v>3.4902470000000001</v>
+      </c>
+      <c r="AN320" s="23">
+        <v>8.5716000000000001</v>
+      </c>
+      <c r="AO320" s="23">
+        <v>10.932</v>
+      </c>
+      <c r="AP320" s="23">
+        <v>10.1326</v>
+      </c>
+      <c r="AQ320" s="21">
+        <f t="shared" si="88"/>
+        <v>9.8787333333333329</v>
+      </c>
+      <c r="AS320" s="21">
+        <v>5.1889000000000003</v>
+      </c>
+      <c r="AT320" s="23">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="AU320" s="23">
+        <v>6.3148</v>
+      </c>
+      <c r="AV320" s="21">
+        <f t="shared" si="89"/>
+        <v>6.0955666666666675</v>
+      </c>
+    </row>
+    <row r="321" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H321" s="22">
+        <v>938</v>
+      </c>
+      <c r="I321" s="23">
+        <v>26.3538</v>
+      </c>
+      <c r="J321" s="23">
+        <v>17.972000000000001</v>
+      </c>
+      <c r="K321" s="21">
+        <f t="shared" si="82"/>
+        <v>22.1629</v>
+      </c>
+      <c r="M321" s="23">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="N321" s="23">
+        <v>6.4306999999999999</v>
+      </c>
+      <c r="O321" s="21">
+        <f t="shared" si="83"/>
+        <v>7.3648499999999997</v>
+      </c>
+      <c r="P321" s="23"/>
+      <c r="Q321" s="23">
+        <v>14.73</v>
+      </c>
+      <c r="R321" s="23">
+        <v>12.163500000000001</v>
+      </c>
+      <c r="S321" s="21">
+        <f t="shared" si="84"/>
+        <v>13.446750000000002</v>
+      </c>
+      <c r="V321" s="23">
+        <v>8.3460999999999999</v>
+      </c>
+      <c r="W321" s="23">
+        <v>8.2151999999999994</v>
+      </c>
+      <c r="X321" s="21">
+        <f t="shared" si="85"/>
+        <v>8.2806499999999996</v>
+      </c>
+      <c r="AC321" s="22">
         <v>167</v>
       </c>
-      <c r="I317" s="6"/>
-      <c r="J317" s="6"/>
-      <c r="K317" s="1">
-        <f t="shared" ref="K317:K325" si="82">SUM(I317:J317)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M317" s="6"/>
-      <c r="N317" s="6"/>
-      <c r="O317" s="1">
-        <f t="shared" ref="O317:O324" si="83">SUM(M317:N317)/2</f>
-        <v>0</v>
-      </c>
-      <c r="P317" s="6"/>
-      <c r="Q317" s="6"/>
-      <c r="R317" s="6"/>
-      <c r="S317" s="1">
-        <f t="shared" ref="S317:S325" si="84">SUM(Q317:R317)/2</f>
-        <v>0</v>
-      </c>
-      <c r="V317" s="6"/>
-      <c r="W317" s="6"/>
-      <c r="X317" s="1">
-        <f t="shared" ref="X317:X325" si="85">SUM(V317:W317)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AC317" s="4">
-        <v>33</v>
-      </c>
-      <c r="AG317" s="1">
-        <f t="shared" ref="AG317:AG325" si="86">SUM(AD317:AF317)/3</f>
-        <v>0</v>
-      </c>
-      <c r="AL317" s="1">
-        <f t="shared" ref="AL317:AL325" si="87">SUM(AI317:AK317)/3</f>
-        <v>0</v>
-      </c>
-      <c r="AQ317" s="1">
-        <f t="shared" ref="AQ317:AQ325" si="88">SUM(AN317:AP317)/3</f>
-        <v>0</v>
-      </c>
-      <c r="AV317" s="1">
-        <f t="shared" ref="AV317:AV325" si="89">SUM(AS317:AU317)/3</f>
-        <v>0</v>
+      <c r="AD321" s="21">
+        <v>19.89</v>
+      </c>
+      <c r="AE321" s="21">
+        <v>24.503599999999999</v>
+      </c>
+      <c r="AF321" s="21">
+        <v>24.2927</v>
+      </c>
+      <c r="AG321" s="21">
+        <f t="shared" si="86"/>
+        <v>22.895433333333333</v>
+      </c>
+      <c r="AI321" s="23">
+        <v>3.7243930000000001</v>
+      </c>
+      <c r="AJ321" s="21">
+        <v>5.1303000000000001</v>
+      </c>
+      <c r="AK321" s="23">
+        <v>4.3741469999999998</v>
+      </c>
+      <c r="AL321" s="21">
+        <f t="shared" si="87"/>
+        <v>4.4096133333333336</v>
+      </c>
+      <c r="AN321" s="21">
+        <v>9.7538</v>
+      </c>
+      <c r="AO321" s="21">
+        <v>11.9009</v>
+      </c>
+      <c r="AP321" s="23">
+        <v>11.4933</v>
+      </c>
+      <c r="AQ321" s="21">
+        <f t="shared" si="88"/>
+        <v>11.049333333333331</v>
+      </c>
+      <c r="AS321" s="21">
+        <v>5.4023000000000003</v>
+      </c>
+      <c r="AT321" s="21">
+        <v>7.0025000000000004</v>
+      </c>
+      <c r="AU321" s="21">
+        <v>6.3775000000000004</v>
+      </c>
+      <c r="AV321" s="21">
+        <f t="shared" si="89"/>
+        <v>6.2607666666666679</v>
       </c>
     </row>
-    <row r="318" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="E318" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H318" s="4">
-        <v>333</v>
-      </c>
-      <c r="I318" s="6"/>
-      <c r="J318" s="6"/>
-      <c r="K318" s="1">
+    <row r="322" spans="5:48" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H322" s="21">
+        <v>1125</v>
+      </c>
+      <c r="I322" s="23">
+        <v>28.927900000000001</v>
+      </c>
+      <c r="J322" s="23">
+        <v>22.3873</v>
+      </c>
+      <c r="K322" s="21">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="M318" s="6"/>
-      <c r="N318" s="6"/>
-      <c r="O318" s="1">
+        <v>25.657600000000002</v>
+      </c>
+      <c r="M322" s="23">
+        <v>9.2012</v>
+      </c>
+      <c r="N322" s="23">
+        <v>7.8872999999999998</v>
+      </c>
+      <c r="O322" s="21">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P318" s="6"/>
-      <c r="R318" s="6"/>
-      <c r="S318" s="1">
+        <v>8.5442499999999999</v>
+      </c>
+      <c r="P322" s="23"/>
+      <c r="Q322" s="23">
+        <v>15.5052</v>
+      </c>
+      <c r="R322" s="23">
+        <v>14.454800000000001</v>
+      </c>
+      <c r="S322" s="21">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="W318" s="6"/>
-      <c r="X318" s="1">
+        <v>14.98</v>
+      </c>
+      <c r="V322" s="23">
+        <v>9.2530000000000001</v>
+      </c>
+      <c r="W322" s="23">
+        <v>9.5695999999999994</v>
+      </c>
+      <c r="X322" s="21">
         <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC318" s="4">
-        <v>67</v>
-      </c>
-      <c r="AG318" s="1">
+        <v>9.4113000000000007</v>
+      </c>
+      <c r="AC322" s="21">
+        <v>200</v>
+      </c>
+      <c r="AD322" s="21">
+        <v>25.025099999999998</v>
+      </c>
+      <c r="AE322" s="21">
+        <v>29.096800000000002</v>
+      </c>
+      <c r="AF322" s="21">
+        <v>30.836600000000001</v>
+      </c>
+      <c r="AG322" s="21">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL318" s="1">
+        <v>28.319500000000001</v>
+      </c>
+      <c r="AI322" s="21">
+        <v>5.1393000000000004</v>
+      </c>
+      <c r="AJ322" s="21">
+        <v>6.1757999999999997</v>
+      </c>
+      <c r="AK322" s="21">
+        <v>5.9485999999999999</v>
+      </c>
+      <c r="AL322" s="21">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AQ318" s="1">
+        <v>5.7545666666666664</v>
+      </c>
+      <c r="AN322" s="21">
+        <v>12.1854</v>
+      </c>
+      <c r="AO322" s="21">
+        <v>13.754099999999999</v>
+      </c>
+      <c r="AP322" s="21">
+        <v>13.342000000000001</v>
+      </c>
+      <c r="AQ322" s="21">
         <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AV318" s="1">
+        <v>13.093833333333334</v>
+      </c>
+      <c r="AS322" s="21">
+        <v>5.4622999999999999</v>
+      </c>
+      <c r="AT322" s="21">
+        <v>6.8254000000000001</v>
+      </c>
+      <c r="AU322" s="21">
+        <v>6.1186999999999996</v>
+      </c>
+      <c r="AV322" s="21">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>6.1354666666666668</v>
       </c>
     </row>
-    <row r="319" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="E319" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H319" s="1">
-        <v>500</v>
-      </c>
-      <c r="I319" s="6"/>
-      <c r="J319" s="6"/>
-      <c r="K319" s="1">
+    <row r="323" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E323" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H323" s="21">
+        <v>1313</v>
+      </c>
+      <c r="I323" s="23">
+        <v>35.560600000000001</v>
+      </c>
+      <c r="J323" s="23">
+        <v>26.898099999999999</v>
+      </c>
+      <c r="K323" s="21">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="M319" s="6"/>
-      <c r="N319" s="6"/>
-      <c r="O319" s="1">
+        <v>31.22935</v>
+      </c>
+      <c r="M323" s="23">
+        <v>11.7911</v>
+      </c>
+      <c r="N323" s="23">
+        <v>8.7174999999999994</v>
+      </c>
+      <c r="O323" s="21">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P319" s="6"/>
-      <c r="Q319" s="6"/>
-      <c r="R319" s="6"/>
-      <c r="S319" s="1">
+        <v>10.254300000000001</v>
+      </c>
+      <c r="P323" s="23"/>
+      <c r="Q323" s="23">
+        <v>17.652699999999999</v>
+      </c>
+      <c r="R323" s="23">
+        <v>15.759499999999999</v>
+      </c>
+      <c r="S323" s="21">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="V319" s="6"/>
-      <c r="W319" s="6"/>
-      <c r="X319" s="1">
+        <v>16.706099999999999</v>
+      </c>
+      <c r="V323" s="23">
+        <v>10.224</v>
+      </c>
+      <c r="W323" s="23">
+        <v>10.121499999999999</v>
+      </c>
+      <c r="X323" s="21">
         <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC319" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG319" s="1">
+        <v>10.172750000000001</v>
+      </c>
+      <c r="AC323" s="21">
+        <v>233</v>
+      </c>
+      <c r="AD323" s="21">
+        <v>28.973700000000001</v>
+      </c>
+      <c r="AE323" s="21">
+        <v>34.576300000000003</v>
+      </c>
+      <c r="AF323" s="21">
+        <v>35.668399999999998</v>
+      </c>
+      <c r="AG323" s="21">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL319" s="1">
+        <v>33.072800000000001</v>
+      </c>
+      <c r="AI323" s="21">
+        <v>5.2991000000000001</v>
+      </c>
+      <c r="AJ323" s="21">
+        <v>6.8583999999999996</v>
+      </c>
+      <c r="AK323" s="21">
+        <v>6.4794</v>
+      </c>
+      <c r="AL323" s="21">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AQ319" s="1">
+        <v>6.212299999999999</v>
+      </c>
+      <c r="AN323" s="21">
+        <v>11.862299999999999</v>
+      </c>
+      <c r="AO323" s="21">
+        <v>14.573700000000001</v>
+      </c>
+      <c r="AP323" s="21">
+        <v>13.9977</v>
+      </c>
+      <c r="AQ323" s="21">
         <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AV319" s="1">
+        <v>13.4779</v>
+      </c>
+      <c r="AS323" s="21">
+        <v>5.8718000000000004</v>
+      </c>
+      <c r="AT323" s="21">
+        <v>7.2466999999999997</v>
+      </c>
+      <c r="AU323" s="21">
+        <v>6.4118000000000004</v>
+      </c>
+      <c r="AV323" s="21">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>6.5101000000000004</v>
       </c>
     </row>
-    <row r="320" spans="5:51" x14ac:dyDescent="0.25">
-      <c r="E320" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H320" s="4">
-        <v>667</v>
-      </c>
-      <c r="I320" s="6"/>
-      <c r="J320" s="6"/>
-      <c r="K320" s="1">
+    <row r="324" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E324" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H324" s="21">
+        <v>1500</v>
+      </c>
+      <c r="I324" s="23">
+        <v>37.633299999999998</v>
+      </c>
+      <c r="J324" s="23">
+        <v>30.523099999999999</v>
+      </c>
+      <c r="K324" s="21">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="M320" s="6"/>
-      <c r="N320" s="6"/>
-      <c r="O320" s="1">
+        <v>34.078199999999995</v>
+      </c>
+      <c r="M324" s="23">
+        <v>13.1332</v>
+      </c>
+      <c r="N324" s="21">
+        <v>11.3642</v>
+      </c>
+      <c r="O324" s="21">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P320" s="6"/>
-      <c r="Q320" s="6"/>
-      <c r="R320" s="6"/>
-      <c r="S320" s="1">
+        <v>12.248699999999999</v>
+      </c>
+      <c r="P324" s="23"/>
+      <c r="Q324" s="23">
+        <v>19.8352</v>
+      </c>
+      <c r="R324" s="21">
+        <v>17.440100000000001</v>
+      </c>
+      <c r="S324" s="21">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="V320" s="6"/>
-      <c r="W320" s="6"/>
-      <c r="X320" s="1">
+        <v>18.637650000000001</v>
+      </c>
+      <c r="V324" s="21">
+        <v>10.9694</v>
+      </c>
+      <c r="W324" s="21">
+        <v>11.337</v>
+      </c>
+      <c r="X324" s="21">
         <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC320" s="4">
-        <v>133</v>
-      </c>
-      <c r="AG320" s="1">
+        <v>11.1532</v>
+      </c>
+      <c r="AC324" s="21">
+        <v>267</v>
+      </c>
+      <c r="AD324" s="23">
+        <v>34.7532</v>
+      </c>
+      <c r="AE324" s="23">
+        <v>41.645000000000003</v>
+      </c>
+      <c r="AF324" s="23">
+        <v>43.741300000000003</v>
+      </c>
+      <c r="AG324" s="21">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL320" s="1">
+        <v>40.046500000000002</v>
+      </c>
+      <c r="AI324" s="23">
+        <v>6.4633000000000003</v>
+      </c>
+      <c r="AJ324" s="23">
+        <v>8.5340000000000007</v>
+      </c>
+      <c r="AK324" s="23">
+        <v>8.2143999999999995</v>
+      </c>
+      <c r="AL324" s="21">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AQ320" s="1">
+        <v>7.7372333333333332</v>
+      </c>
+      <c r="AN324" s="23">
+        <v>13.538500000000001</v>
+      </c>
+      <c r="AO324" s="23">
+        <v>16.243400000000001</v>
+      </c>
+      <c r="AP324" s="23">
+        <v>16.318000000000001</v>
+      </c>
+      <c r="AQ324" s="21">
         <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AV320" s="1">
+        <v>15.366633333333334</v>
+      </c>
+      <c r="AS324" s="23">
+        <v>6.2103999999999999</v>
+      </c>
+      <c r="AT324" s="23">
+        <v>7.4081999999999999</v>
+      </c>
+      <c r="AU324" s="23">
+        <v>7.4368999999999996</v>
+      </c>
+      <c r="AV324" s="21">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>7.0185000000000004</v>
       </c>
     </row>
-    <row r="321" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="H321" s="4">
-        <v>833</v>
-      </c>
-      <c r="I321" s="6"/>
-      <c r="J321" s="6"/>
-      <c r="K321" s="1">
+    <row r="325" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H325" s="21">
+        <v>1688</v>
+      </c>
+      <c r="I325" s="23">
+        <v>46.540999999999997</v>
+      </c>
+      <c r="J325" s="23">
+        <v>31.361999999999998</v>
+      </c>
+      <c r="K325" s="21">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="O321" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P321" s="6"/>
-      <c r="S321" s="1">
+        <v>38.951499999999996</v>
+      </c>
+      <c r="M325" s="23">
+        <v>14.805</v>
+      </c>
+      <c r="N325" s="23">
+        <v>11.987</v>
+      </c>
+      <c r="O325" s="21">
+        <f>SUM(M325:N325)/2</f>
+        <v>13.396000000000001</v>
+      </c>
+      <c r="P325" s="23"/>
+      <c r="Q325" s="23">
+        <v>22.3855</v>
+      </c>
+      <c r="R325" s="23">
+        <v>17.242999999999999</v>
+      </c>
+      <c r="S325" s="21">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="X321" s="1">
+        <v>19.814250000000001</v>
+      </c>
+      <c r="T325" s="23"/>
+      <c r="U325" s="23"/>
+      <c r="V325" s="23">
+        <v>10.2737</v>
+      </c>
+      <c r="W325" s="23">
+        <v>10.53</v>
+      </c>
+      <c r="X325" s="21">
         <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC321" s="4">
-        <v>167</v>
-      </c>
-      <c r="AG321" s="1">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL321" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AQ321" s="1">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AV321" s="1">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="5:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H322" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I322" s="6"/>
-      <c r="J322" s="6"/>
-      <c r="K322" s="1">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="O322" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P322" s="6"/>
-      <c r="R322" s="6"/>
-      <c r="S322" s="1">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="W322" s="6"/>
-      <c r="X322" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC322" s="1">
-        <v>200</v>
-      </c>
-      <c r="AG322" s="1">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL322" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AQ322" s="1">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AV322" s="1">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E323" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H323" s="1">
-        <v>1167</v>
-      </c>
-      <c r="I323" s="6"/>
-      <c r="J323" s="6"/>
-      <c r="K323" s="1">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="O323" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P323" s="6"/>
-      <c r="S323" s="1">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="X323" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC323" s="1">
-        <v>233</v>
-      </c>
-      <c r="AG323" s="1">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL323" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AQ323" s="1">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AV323" s="1">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="E324" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H324" s="1">
-        <v>1333</v>
-      </c>
-      <c r="I324" s="6"/>
-      <c r="J324" s="6"/>
-      <c r="K324" s="1">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="O324" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P324" s="6"/>
-      <c r="S324" s="1">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="X324" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC324" s="1">
-        <v>267</v>
-      </c>
-      <c r="AD324" s="6"/>
-      <c r="AE324" s="6"/>
-      <c r="AF324" s="6">
-        <v>43.741300000000003</v>
-      </c>
-      <c r="AG324" s="1">
-        <f t="shared" si="86"/>
-        <v>14.580433333333334</v>
-      </c>
-      <c r="AI324" s="6"/>
-      <c r="AJ324" s="6"/>
-      <c r="AK324" s="6">
-        <v>8.2143999999999995</v>
-      </c>
-      <c r="AL324" s="1">
-        <f t="shared" si="87"/>
-        <v>2.7381333333333333</v>
-      </c>
-      <c r="AN324" s="6"/>
-      <c r="AO324" s="6"/>
-      <c r="AP324" s="6">
-        <v>16.318000000000001</v>
-      </c>
-      <c r="AQ324" s="1">
-        <f t="shared" si="88"/>
-        <v>5.4393333333333338</v>
-      </c>
-      <c r="AS324" s="6"/>
-      <c r="AT324" s="6"/>
-      <c r="AU324" s="6">
-        <v>7.4368999999999996</v>
-      </c>
-      <c r="AV324" s="1">
-        <f t="shared" si="89"/>
-        <v>2.4789666666666665</v>
-      </c>
-    </row>
-    <row r="325" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="H325" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I325" s="6"/>
-      <c r="J325" s="6"/>
-      <c r="K325" s="1">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="O325" s="1">
-        <f>SUM(M325:N325)/2</f>
-        <v>0</v>
-      </c>
-      <c r="P325" s="6"/>
-      <c r="S325" s="1">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="T325" s="6"/>
-      <c r="U325" s="6"/>
-      <c r="X325" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AC325" s="1">
+        <v>10.40185</v>
+      </c>
+      <c r="AC325" s="21">
         <v>300</v>
       </c>
-      <c r="AD325" s="12">
+      <c r="AD325" s="23">
         <v>43.652000000000001</v>
       </c>
-      <c r="AE325" s="12">
+      <c r="AE325" s="23">
         <v>52.018000000000001</v>
       </c>
-      <c r="AF325" s="12">
+      <c r="AF325" s="23">
         <v>50.353999999999999</v>
       </c>
-      <c r="AG325" s="1">
+      <c r="AG325" s="21">
         <f t="shared" si="86"/>
         <v>48.674666666666667</v>
       </c>
-      <c r="AI325" s="6">
+      <c r="AI325" s="23">
         <v>8.5815000000000001</v>
       </c>
-      <c r="AJ325" s="1">
+      <c r="AJ325" s="21">
         <v>12.363</v>
       </c>
-      <c r="AK325" s="1">
+      <c r="AK325" s="21">
         <v>9.9245999999999999</v>
       </c>
-      <c r="AL325" s="1">
+      <c r="AL325" s="21">
         <f t="shared" si="87"/>
         <v>10.289699999999998</v>
       </c>
-      <c r="AN325" s="12">
+      <c r="AN325" s="23">
         <v>15.009</v>
       </c>
-      <c r="AO325" s="6">
+      <c r="AO325" s="23">
         <v>20.41</v>
       </c>
-      <c r="AP325" s="1">
+      <c r="AP325" s="21">
         <v>18.0366</v>
       </c>
-      <c r="AQ325" s="1">
+      <c r="AQ325" s="21">
         <f t="shared" si="88"/>
         <v>17.818533333333331</v>
       </c>
-      <c r="AR325" s="6"/>
-      <c r="AS325" s="1">
+      <c r="AR325" s="23"/>
+      <c r="AS325" s="21">
         <v>6.5849000000000002</v>
       </c>
-      <c r="AT325" s="1">
+      <c r="AT325" s="21">
         <v>9.1865000000000006</v>
       </c>
-      <c r="AU325" s="1">
+      <c r="AU325" s="21">
         <v>7.359</v>
       </c>
-      <c r="AV325" s="1">
+      <c r="AV325" s="21">
         <f t="shared" si="89"/>
         <v>7.7101333333333342</v>
       </c>
     </row>
-    <row r="326" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="I326" s="6"/>
-      <c r="J326" s="6"/>
-      <c r="M326" s="6"/>
-      <c r="N326" s="6"/>
-      <c r="Q326" s="6"/>
-      <c r="R326" s="6"/>
-      <c r="AJ326" s="6"/>
-      <c r="AK326" s="6"/>
-      <c r="AO326" s="6"/>
+    <row r="326" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I326" s="23"/>
+      <c r="J326" s="23"/>
+      <c r="M326" s="23"/>
+      <c r="N326" s="23"/>
+      <c r="Q326" s="23"/>
+      <c r="R326" s="23"/>
+      <c r="AJ326" s="23"/>
+      <c r="AK326" s="23"/>
+      <c r="AO326" s="23"/>
     </row>
+    <row r="327" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="5:48" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="361" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
@@ -42367,8 +47595,2692 @@
         <v>925</v>
       </c>
     </row>
+    <row r="458" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E458" s="25"/>
+      <c r="F458" s="25"/>
+      <c r="G458" s="25"/>
+      <c r="H458" s="25"/>
+      <c r="I458" s="25"/>
+      <c r="J458" s="25"/>
+      <c r="K458" s="25"/>
+      <c r="L458" s="25"/>
+      <c r="M458" s="25"/>
+      <c r="N458" s="25"/>
+      <c r="O458" s="25"/>
+      <c r="P458" s="25"/>
+      <c r="Q458" s="25"/>
+      <c r="R458" s="25"/>
+      <c r="S458" s="25"/>
+      <c r="T458" s="25"/>
+      <c r="U458" s="25"/>
+      <c r="V458" s="25"/>
+      <c r="W458" s="25"/>
+      <c r="X458" s="25"/>
+      <c r="Y458" s="25"/>
+      <c r="Z458" s="25"/>
+      <c r="AA458" s="25"/>
+      <c r="AB458" s="25"/>
+      <c r="AC458" s="25"/>
+      <c r="AD458" s="25"/>
+      <c r="AE458" s="25"/>
+    </row>
+    <row r="460" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E460" s="21"/>
+      <c r="F460" s="21"/>
+      <c r="G460" s="21"/>
+      <c r="H460" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I460" s="18"/>
+      <c r="J460" s="18"/>
+      <c r="K460" s="18"/>
+      <c r="L460" s="18"/>
+      <c r="M460" s="18"/>
+      <c r="N460" s="21"/>
+      <c r="O460" s="21"/>
+      <c r="P460" s="21"/>
+      <c r="Q460" s="21"/>
+      <c r="R460" s="21"/>
+      <c r="S460" s="21"/>
+      <c r="T460" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U460" s="18"/>
+      <c r="V460" s="18"/>
+      <c r="W460" s="18"/>
+      <c r="X460" s="18"/>
+      <c r="Y460" s="18"/>
+      <c r="Z460" s="17"/>
+      <c r="AA460" s="17"/>
+      <c r="AB460" s="17"/>
+      <c r="AC460" s="17"/>
+      <c r="AD460" s="17"/>
+      <c r="AE460" s="17"/>
+      <c r="AF460" s="17"/>
+      <c r="AG460" s="17"/>
+      <c r="AH460" s="17"/>
+      <c r="AI460" s="17"/>
+      <c r="AJ460" s="17"/>
+      <c r="AK460" s="17"/>
+    </row>
+    <row r="461" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E461" s="21"/>
+      <c r="F461" s="21"/>
+      <c r="G461" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H461" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I461" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J461" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K461" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L461" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M461" s="21"/>
+      <c r="N461" s="21"/>
+      <c r="O461" s="21"/>
+      <c r="P461" s="21"/>
+      <c r="Q461" s="21"/>
+      <c r="R461" s="21"/>
+      <c r="S461" s="21"/>
+      <c r="T461" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="U461" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V461" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W461" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X461" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y461" s="21"/>
+      <c r="Z461" s="27"/>
+      <c r="AA461" s="27"/>
+      <c r="AB461" s="21"/>
+      <c r="AC461" s="21"/>
+      <c r="AD461" s="21"/>
+      <c r="AE461" s="27"/>
+      <c r="AF461" s="27"/>
+      <c r="AG461" s="27"/>
+      <c r="AH461" s="21"/>
+      <c r="AI461" s="21"/>
+      <c r="AJ461" s="21"/>
+      <c r="AK461" s="27"/>
+    </row>
+    <row r="462" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E462" s="21"/>
+      <c r="F462" s="21"/>
+      <c r="G462" s="21"/>
+      <c r="H462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M462" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N462" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O462" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P462" s="21"/>
+      <c r="Q462" s="21"/>
+      <c r="R462" s="21"/>
+      <c r="S462" s="21"/>
+      <c r="T462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="U462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="V462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="X462" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y462" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z462" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA462" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB462" s="21"/>
+      <c r="AC462" s="21"/>
+      <c r="AD462" s="21"/>
+      <c r="AE462" s="21"/>
+      <c r="AF462" s="21"/>
+      <c r="AG462" s="21"/>
+      <c r="AH462" s="21"/>
+      <c r="AI462" s="21"/>
+      <c r="AJ462" s="21"/>
+      <c r="AK462" s="21"/>
+    </row>
+    <row r="463" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E463" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F463" s="21">
+        <v>20</v>
+      </c>
+      <c r="G463" s="21">
+        <f t="shared" ref="G463:G481" si="97">1 / (((200 * 1024)^(1/20))^(F463 - 1))</f>
+        <v>8.9998764046401235E-6</v>
+      </c>
+      <c r="H463" s="26">
+        <v>2541</v>
+      </c>
+      <c r="I463" s="26">
+        <v>2514</v>
+      </c>
+      <c r="J463" s="26">
+        <v>10049</v>
+      </c>
+      <c r="K463" s="26">
+        <v>3291</v>
+      </c>
+      <c r="L463" s="26">
+        <v>3851</v>
+      </c>
+      <c r="M463" s="21">
+        <f>SUM(H463:L463) / 5</f>
+        <v>4449.2</v>
+      </c>
+      <c r="N463" s="21">
+        <f>SUM(H463:I463)/2</f>
+        <v>2527.5</v>
+      </c>
+      <c r="O463" s="21">
+        <f>SUM(J463:L463)/3</f>
+        <v>5730.333333333333</v>
+      </c>
+      <c r="P463" s="21"/>
+      <c r="Q463" s="21"/>
+      <c r="R463" s="21"/>
+      <c r="S463" s="21"/>
+      <c r="T463" s="26">
+        <v>2540</v>
+      </c>
+      <c r="U463" s="26">
+        <v>2514</v>
+      </c>
+      <c r="V463" s="26">
+        <v>3936</v>
+      </c>
+      <c r="W463" s="26">
+        <v>3091</v>
+      </c>
+      <c r="X463" s="26">
+        <v>3331</v>
+      </c>
+      <c r="Y463" s="21">
+        <f>SUM(T463:X463) / 5</f>
+        <v>3082.4</v>
+      </c>
+      <c r="Z463" s="21">
+        <f>SUM(T463:U463)/2</f>
+        <v>2527</v>
+      </c>
+      <c r="AA463" s="21">
+        <f>SUM(V463:X463)/3</f>
+        <v>3452.6666666666665</v>
+      </c>
+      <c r="AB463" s="26"/>
+      <c r="AC463" s="21"/>
+      <c r="AD463" s="21"/>
+      <c r="AE463" s="21"/>
+      <c r="AF463" s="26"/>
+      <c r="AG463" s="26"/>
+      <c r="AH463" s="26"/>
+      <c r="AI463" s="26"/>
+      <c r="AJ463" s="26"/>
+      <c r="AK463" s="21"/>
+    </row>
+    <row r="464" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E464" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F464" s="21">
+        <v>19</v>
+      </c>
+      <c r="G464" s="21">
+        <f t="shared" si="97"/>
+        <v>1.6588344381193831E-5</v>
+      </c>
+      <c r="H464" s="26">
+        <v>2569</v>
+      </c>
+      <c r="I464" s="26">
+        <v>2530</v>
+      </c>
+      <c r="J464" s="26">
+        <v>11935</v>
+      </c>
+      <c r="K464" s="26">
+        <v>4071</v>
+      </c>
+      <c r="L464" s="26">
+        <v>5220</v>
+      </c>
+      <c r="M464" s="21">
+        <f t="shared" ref="M464:M482" si="98">SUM(H464:L464) / 5</f>
+        <v>5265</v>
+      </c>
+      <c r="N464" s="21">
+        <f t="shared" ref="N464:N482" si="99">SUM(H464:I464)/2</f>
+        <v>2549.5</v>
+      </c>
+      <c r="O464" s="21">
+        <f>SUM(J464:L464)/3</f>
+        <v>7075.333333333333</v>
+      </c>
+      <c r="P464" s="21"/>
+      <c r="Q464" s="21"/>
+      <c r="R464" s="21"/>
+      <c r="S464" s="21"/>
+      <c r="T464" s="26">
+        <v>2568</v>
+      </c>
+      <c r="U464" s="26">
+        <v>2530</v>
+      </c>
+      <c r="V464" s="26">
+        <v>4211</v>
+      </c>
+      <c r="W464" s="26">
+        <v>3468</v>
+      </c>
+      <c r="X464" s="26">
+        <v>3757</v>
+      </c>
+      <c r="Y464" s="21">
+        <f t="shared" ref="Y464:Y482" si="100">SUM(T464:X464) / 5</f>
+        <v>3306.8</v>
+      </c>
+      <c r="Z464" s="21">
+        <f t="shared" ref="Z464:Z482" si="101">SUM(T464:U464)/2</f>
+        <v>2549</v>
+      </c>
+      <c r="AA464" s="21">
+        <f>SUM(V464:X464)/3</f>
+        <v>3812</v>
+      </c>
+      <c r="AB464" s="26"/>
+      <c r="AC464" s="21"/>
+      <c r="AD464" s="21"/>
+      <c r="AE464" s="21"/>
+      <c r="AF464" s="26"/>
+      <c r="AG464" s="26"/>
+      <c r="AH464" s="26"/>
+      <c r="AI464" s="26"/>
+      <c r="AJ464" s="26"/>
+      <c r="AK464" s="21"/>
+    </row>
+    <row r="465" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E465" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F465" s="21">
+        <v>18</v>
+      </c>
+      <c r="G465" s="21">
+        <f t="shared" si="97"/>
+        <v>3.0575216473774254E-5</v>
+      </c>
+      <c r="H465" s="26">
+        <v>2629</v>
+      </c>
+      <c r="I465" s="26">
+        <v>2569</v>
+      </c>
+      <c r="J465" s="26">
+        <v>14721</v>
+      </c>
+      <c r="K465" s="26">
+        <v>5573</v>
+      </c>
+      <c r="L465" s="26">
+        <v>7944</v>
+      </c>
+      <c r="M465" s="21">
+        <f t="shared" si="98"/>
+        <v>6687.2</v>
+      </c>
+      <c r="N465" s="21">
+        <f t="shared" si="99"/>
+        <v>2599</v>
+      </c>
+      <c r="O465" s="21">
+        <f t="shared" ref="O465:O482" si="102">SUM(J465:L465)/3</f>
+        <v>9412.6666666666661</v>
+      </c>
+      <c r="P465" s="21"/>
+      <c r="Q465" s="21"/>
+      <c r="R465" s="21"/>
+      <c r="S465" s="21"/>
+      <c r="T465" s="26">
+        <v>2625</v>
+      </c>
+      <c r="U465" s="26">
+        <v>2568</v>
+      </c>
+      <c r="V465" s="26">
+        <v>4372</v>
+      </c>
+      <c r="W465" s="26">
+        <v>3989</v>
+      </c>
+      <c r="X465" s="26">
+        <v>4245</v>
+      </c>
+      <c r="Y465" s="21">
+        <f t="shared" si="100"/>
+        <v>3559.8</v>
+      </c>
+      <c r="Z465" s="21">
+        <f t="shared" si="101"/>
+        <v>2596.5</v>
+      </c>
+      <c r="AA465" s="21">
+        <f t="shared" ref="AA465:AA482" si="103">SUM(V465:X465)/3</f>
+        <v>4202</v>
+      </c>
+      <c r="AB465" s="26"/>
+      <c r="AC465" s="21"/>
+      <c r="AD465" s="21"/>
+      <c r="AE465" s="21"/>
+      <c r="AF465" s="26"/>
+      <c r="AG465" s="26"/>
+      <c r="AH465" s="26"/>
+      <c r="AI465" s="26"/>
+      <c r="AJ465" s="26"/>
+      <c r="AK465" s="21"/>
+    </row>
+    <row r="466" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E466" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F466" s="21">
+        <v>17</v>
+      </c>
+      <c r="G466" s="21">
+        <f t="shared" si="97"/>
+        <v>5.6355465074500556E-5</v>
+      </c>
+      <c r="H466" s="26">
+        <v>2726</v>
+      </c>
+      <c r="I466" s="26">
+        <v>2630</v>
+      </c>
+      <c r="J466" s="26">
+        <v>19097</v>
+      </c>
+      <c r="K466" s="26">
+        <v>8337</v>
+      </c>
+      <c r="L466" s="26">
+        <v>12345</v>
+      </c>
+      <c r="M466" s="21">
+        <f t="shared" si="98"/>
+        <v>9027</v>
+      </c>
+      <c r="N466" s="21">
+        <f t="shared" si="99"/>
+        <v>2678</v>
+      </c>
+      <c r="O466" s="21">
+        <f t="shared" si="102"/>
+        <v>13259.666666666666</v>
+      </c>
+      <c r="P466" s="21"/>
+      <c r="Q466" s="21"/>
+      <c r="R466" s="21"/>
+      <c r="S466" s="21"/>
+      <c r="T466" s="26">
+        <v>2709</v>
+      </c>
+      <c r="U466" s="26">
+        <v>2620</v>
+      </c>
+      <c r="V466" s="26">
+        <v>4598</v>
+      </c>
+      <c r="W466" s="26">
+        <v>4601</v>
+      </c>
+      <c r="X466" s="26">
+        <v>4717</v>
+      </c>
+      <c r="Y466" s="21">
+        <f t="shared" si="100"/>
+        <v>3849</v>
+      </c>
+      <c r="Z466" s="21">
+        <f t="shared" si="101"/>
+        <v>2664.5</v>
+      </c>
+      <c r="AA466" s="21">
+        <f t="shared" si="103"/>
+        <v>4638.666666666667</v>
+      </c>
+      <c r="AB466" s="26"/>
+      <c r="AC466" s="21"/>
+      <c r="AD466" s="21"/>
+      <c r="AE466" s="21"/>
+      <c r="AF466" s="26"/>
+      <c r="AG466" s="26"/>
+      <c r="AH466" s="26"/>
+      <c r="AI466" s="26"/>
+      <c r="AJ466" s="26"/>
+      <c r="AK466" s="21"/>
+    </row>
+    <row r="467" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E467" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F467" s="21">
+        <v>16</v>
+      </c>
+      <c r="G467" s="21">
+        <f t="shared" si="97"/>
+        <v>1.0387296673720685E-4</v>
+      </c>
+      <c r="H467" s="26">
+        <v>2972</v>
+      </c>
+      <c r="I467" s="26">
+        <v>2758</v>
+      </c>
+      <c r="J467" s="26">
+        <v>23335</v>
+      </c>
+      <c r="K467" s="26">
+        <v>13796</v>
+      </c>
+      <c r="L467" s="26">
+        <v>19257</v>
+      </c>
+      <c r="M467" s="21">
+        <f t="shared" si="98"/>
+        <v>12423.6</v>
+      </c>
+      <c r="N467" s="21">
+        <f t="shared" si="99"/>
+        <v>2865</v>
+      </c>
+      <c r="O467" s="21">
+        <f t="shared" si="102"/>
+        <v>18796</v>
+      </c>
+      <c r="P467" s="21"/>
+      <c r="Q467" s="21"/>
+      <c r="R467" s="21"/>
+      <c r="S467" s="21"/>
+      <c r="T467" s="26">
+        <v>2901</v>
+      </c>
+      <c r="U467" s="26">
+        <v>2731</v>
+      </c>
+      <c r="V467" s="26">
+        <v>4696</v>
+      </c>
+      <c r="W467" s="26">
+        <v>5228</v>
+      </c>
+      <c r="X467" s="26">
+        <v>5196</v>
+      </c>
+      <c r="Y467" s="21">
+        <f t="shared" si="100"/>
+        <v>4150.3999999999996</v>
+      </c>
+      <c r="Z467" s="21">
+        <f t="shared" si="101"/>
+        <v>2816</v>
+      </c>
+      <c r="AA467" s="21">
+        <f t="shared" si="103"/>
+        <v>5040</v>
+      </c>
+      <c r="AB467" s="26"/>
+      <c r="AC467" s="21"/>
+      <c r="AD467" s="21"/>
+      <c r="AE467" s="21"/>
+      <c r="AF467" s="26"/>
+      <c r="AG467" s="26"/>
+      <c r="AH467" s="26"/>
+      <c r="AI467" s="26"/>
+      <c r="AJ467" s="26"/>
+      <c r="AK467" s="21"/>
+    </row>
+    <row r="468" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E468" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F468" s="21">
+        <v>15</v>
+      </c>
+      <c r="G468" s="21">
+        <f t="shared" si="97"/>
+        <v>1.9145602302323832E-4</v>
+      </c>
+      <c r="H468" s="26">
+        <v>3478</v>
+      </c>
+      <c r="I468" s="26">
+        <v>3031</v>
+      </c>
+      <c r="J468" s="26">
+        <v>33492</v>
+      </c>
+      <c r="K468" s="26">
+        <v>22574</v>
+      </c>
+      <c r="L468" s="26">
+        <v>31536</v>
+      </c>
+      <c r="M468" s="21">
+        <f t="shared" si="98"/>
+        <v>18822.2</v>
+      </c>
+      <c r="N468" s="21">
+        <f t="shared" si="99"/>
+        <v>3254.5</v>
+      </c>
+      <c r="O468" s="21">
+        <f t="shared" si="102"/>
+        <v>29200.666666666668</v>
+      </c>
+      <c r="P468" s="21"/>
+      <c r="Q468" s="21"/>
+      <c r="R468" s="21"/>
+      <c r="S468" s="21"/>
+      <c r="T468" s="26">
+        <v>3237</v>
+      </c>
+      <c r="U468" s="26">
+        <v>2955</v>
+      </c>
+      <c r="V468" s="26">
+        <v>5261</v>
+      </c>
+      <c r="W468" s="26">
+        <v>5590</v>
+      </c>
+      <c r="X468" s="26">
+        <v>5788</v>
+      </c>
+      <c r="Y468" s="21">
+        <f t="shared" si="100"/>
+        <v>4566.2</v>
+      </c>
+      <c r="Z468" s="21">
+        <f t="shared" si="101"/>
+        <v>3096</v>
+      </c>
+      <c r="AA468" s="21">
+        <f t="shared" si="103"/>
+        <v>5546.333333333333</v>
+      </c>
+      <c r="AB468" s="26"/>
+      <c r="AC468" s="21"/>
+      <c r="AD468" s="21"/>
+      <c r="AE468" s="21"/>
+      <c r="AF468" s="26"/>
+      <c r="AG468" s="26"/>
+      <c r="AH468" s="26"/>
+      <c r="AI468" s="26"/>
+      <c r="AJ468" s="26"/>
+      <c r="AK468" s="21"/>
+    </row>
+    <row r="469" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E469" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F469" s="21">
+        <v>14</v>
+      </c>
+      <c r="G469" s="21">
+        <f t="shared" si="97"/>
+        <v>3.528868954384543E-4</v>
+      </c>
+      <c r="H469" s="26">
+        <v>4936</v>
+      </c>
+      <c r="I469" s="26">
+        <v>3610</v>
+      </c>
+      <c r="J469" s="26">
+        <v>54130</v>
+      </c>
+      <c r="K469" s="26">
+        <v>37412</v>
+      </c>
+      <c r="L469" s="26">
+        <v>53511</v>
+      </c>
+      <c r="M469" s="21">
+        <f t="shared" si="98"/>
+        <v>30719.8</v>
+      </c>
+      <c r="N469" s="21">
+        <f t="shared" si="99"/>
+        <v>4273</v>
+      </c>
+      <c r="O469" s="21">
+        <f t="shared" si="102"/>
+        <v>48351</v>
+      </c>
+      <c r="P469" s="21"/>
+      <c r="Q469" s="21"/>
+      <c r="R469" s="21"/>
+      <c r="S469" s="21"/>
+      <c r="T469" s="26">
+        <v>3935</v>
+      </c>
+      <c r="U469" s="26">
+        <v>3341</v>
+      </c>
+      <c r="V469" s="26">
+        <v>5647</v>
+      </c>
+      <c r="W469" s="26">
+        <v>5859</v>
+      </c>
+      <c r="X469" s="26">
+        <v>6011</v>
+      </c>
+      <c r="Y469" s="21">
+        <f t="shared" si="100"/>
+        <v>4958.6000000000004</v>
+      </c>
+      <c r="Z469" s="21">
+        <f t="shared" si="101"/>
+        <v>3638</v>
+      </c>
+      <c r="AA469" s="21">
+        <f t="shared" si="103"/>
+        <v>5839</v>
+      </c>
+      <c r="AB469" s="26"/>
+      <c r="AC469" s="21"/>
+      <c r="AD469" s="21"/>
+      <c r="AE469" s="21"/>
+      <c r="AF469" s="26"/>
+      <c r="AG469" s="26"/>
+      <c r="AH469" s="26"/>
+      <c r="AI469" s="26"/>
+      <c r="AJ469" s="26"/>
+      <c r="AK469" s="21"/>
+    </row>
+    <row r="470" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E470" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F470" s="21">
+        <v>13</v>
+      </c>
+      <c r="G470" s="21">
+        <f t="shared" si="97"/>
+        <v>6.5043219328271356E-4</v>
+      </c>
+      <c r="H470" s="26">
+        <v>8201</v>
+      </c>
+      <c r="I470" s="26">
+        <v>4943</v>
+      </c>
+      <c r="J470" s="26">
+        <v>77139</v>
+      </c>
+      <c r="K470" s="26">
+        <v>64497</v>
+      </c>
+      <c r="L470" s="26">
+        <v>86048</v>
+      </c>
+      <c r="M470" s="21">
+        <f t="shared" si="98"/>
+        <v>48165.599999999999</v>
+      </c>
+      <c r="N470" s="21">
+        <f t="shared" si="99"/>
+        <v>6572</v>
+      </c>
+      <c r="O470" s="21">
+        <f t="shared" si="102"/>
+        <v>75894.666666666672</v>
+      </c>
+      <c r="P470" s="21"/>
+      <c r="Q470" s="21"/>
+      <c r="R470" s="21"/>
+      <c r="S470" s="21"/>
+      <c r="T470" s="26">
+        <v>4835</v>
+      </c>
+      <c r="U470" s="26">
+        <v>4010</v>
+      </c>
+      <c r="V470" s="26">
+        <v>6138</v>
+      </c>
+      <c r="W470" s="26">
+        <v>5875</v>
+      </c>
+      <c r="X470" s="26">
+        <v>6063</v>
+      </c>
+      <c r="Y470" s="21">
+        <f t="shared" si="100"/>
+        <v>5384.2</v>
+      </c>
+      <c r="Z470" s="21">
+        <f t="shared" si="101"/>
+        <v>4422.5</v>
+      </c>
+      <c r="AA470" s="21">
+        <f t="shared" si="103"/>
+        <v>6025.333333333333</v>
+      </c>
+      <c r="AB470" s="26"/>
+      <c r="AC470" s="21"/>
+      <c r="AD470" s="21"/>
+      <c r="AE470" s="21"/>
+      <c r="AF470" s="26"/>
+      <c r="AG470" s="26"/>
+      <c r="AH470" s="26"/>
+      <c r="AI470" s="26"/>
+      <c r="AJ470" s="26"/>
+      <c r="AK470" s="21"/>
+    </row>
+    <row r="471" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E471" s="21"/>
+      <c r="F471" s="21">
+        <v>12</v>
+      </c>
+      <c r="G471" s="21">
+        <f t="shared" si="97"/>
+        <v>1.1988601547045716E-3</v>
+      </c>
+      <c r="H471" s="26">
+        <v>15514</v>
+      </c>
+      <c r="I471" s="26">
+        <v>8205</v>
+      </c>
+      <c r="J471" s="26">
+        <v>111980</v>
+      </c>
+      <c r="K471" s="26">
+        <v>119552</v>
+      </c>
+      <c r="L471" s="26">
+        <v>143656</v>
+      </c>
+      <c r="M471" s="21">
+        <f t="shared" si="98"/>
+        <v>79781.399999999994</v>
+      </c>
+      <c r="N471" s="21">
+        <f t="shared" si="99"/>
+        <v>11859.5</v>
+      </c>
+      <c r="O471" s="21">
+        <f t="shared" si="102"/>
+        <v>125062.66666666667</v>
+      </c>
+      <c r="P471" s="21"/>
+      <c r="Q471" s="21"/>
+      <c r="R471" s="21"/>
+      <c r="S471" s="21"/>
+      <c r="T471" s="26">
+        <v>5614</v>
+      </c>
+      <c r="U471" s="26">
+        <v>4947</v>
+      </c>
+      <c r="V471" s="26">
+        <v>5620</v>
+      </c>
+      <c r="W471" s="26">
+        <v>6277</v>
+      </c>
+      <c r="X471" s="26">
+        <v>6163</v>
+      </c>
+      <c r="Y471" s="21">
+        <f t="shared" si="100"/>
+        <v>5724.2</v>
+      </c>
+      <c r="Z471" s="21">
+        <f t="shared" si="101"/>
+        <v>5280.5</v>
+      </c>
+      <c r="AA471" s="21">
+        <f t="shared" si="103"/>
+        <v>6020</v>
+      </c>
+      <c r="AB471" s="26"/>
+      <c r="AC471" s="21"/>
+      <c r="AD471" s="21"/>
+      <c r="AE471" s="21"/>
+      <c r="AF471" s="26"/>
+      <c r="AG471" s="26"/>
+      <c r="AH471" s="26"/>
+      <c r="AI471" s="26"/>
+      <c r="AJ471" s="26"/>
+      <c r="AK471" s="21"/>
+    </row>
+    <row r="472" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E472" s="21"/>
+      <c r="F472" s="21">
+        <v>11</v>
+      </c>
+      <c r="G472" s="21">
+        <f t="shared" si="97"/>
+        <v>2.2097086912079614E-3</v>
+      </c>
+      <c r="H472" s="26">
+        <v>26672</v>
+      </c>
+      <c r="I472" s="26">
+        <v>16390</v>
+      </c>
+      <c r="J472" s="26">
+        <v>142286</v>
+      </c>
+      <c r="K472" s="26">
+        <v>206990</v>
+      </c>
+      <c r="L472" s="26">
+        <v>222664</v>
+      </c>
+      <c r="M472" s="21">
+        <f t="shared" si="98"/>
+        <v>123000.4</v>
+      </c>
+      <c r="N472" s="21">
+        <f t="shared" si="99"/>
+        <v>21531</v>
+      </c>
+      <c r="O472" s="21">
+        <f t="shared" si="102"/>
+        <v>190646.66666666666</v>
+      </c>
+      <c r="P472" s="21"/>
+      <c r="Q472" s="21"/>
+      <c r="R472" s="21"/>
+      <c r="S472" s="21"/>
+      <c r="T472" s="26">
+        <v>5695</v>
+      </c>
+      <c r="U472" s="26">
+        <v>6176</v>
+      </c>
+      <c r="V472" s="26">
+        <v>6610</v>
+      </c>
+      <c r="W472" s="26">
+        <v>7241</v>
+      </c>
+      <c r="X472" s="26">
+        <v>6318</v>
+      </c>
+      <c r="Y472" s="21">
+        <f t="shared" si="100"/>
+        <v>6408</v>
+      </c>
+      <c r="Z472" s="21">
+        <f t="shared" si="101"/>
+        <v>5935.5</v>
+      </c>
+      <c r="AA472" s="21">
+        <f t="shared" si="103"/>
+        <v>6723</v>
+      </c>
+      <c r="AB472" s="26"/>
+      <c r="AC472" s="21"/>
+      <c r="AD472" s="21"/>
+      <c r="AE472" s="21"/>
+      <c r="AF472" s="26"/>
+      <c r="AG472" s="26"/>
+      <c r="AH472" s="26"/>
+      <c r="AI472" s="26"/>
+      <c r="AJ472" s="26"/>
+      <c r="AK472" s="21"/>
+    </row>
+    <row r="473" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E473" s="21"/>
+      <c r="F473" s="21">
+        <v>10</v>
+      </c>
+      <c r="G473" s="21">
+        <f t="shared" si="97"/>
+        <v>4.0728791267595739E-3</v>
+      </c>
+      <c r="H473" s="26">
+        <v>48112</v>
+      </c>
+      <c r="I473" s="26">
+        <v>32256</v>
+      </c>
+      <c r="J473" s="26">
+        <v>292454</v>
+      </c>
+      <c r="K473" s="26">
+        <v>423036</v>
+      </c>
+      <c r="L473" s="26">
+        <v>322243</v>
+      </c>
+      <c r="M473" s="21">
+        <f t="shared" si="98"/>
+        <v>223620.2</v>
+      </c>
+      <c r="N473" s="21">
+        <f t="shared" si="99"/>
+        <v>40184</v>
+      </c>
+      <c r="O473" s="21">
+        <f t="shared" si="102"/>
+        <v>345911</v>
+      </c>
+      <c r="P473" s="26"/>
+      <c r="Q473" s="26"/>
+      <c r="R473" s="26"/>
+      <c r="S473" s="21"/>
+      <c r="T473" s="26">
+        <v>6616</v>
+      </c>
+      <c r="U473" s="26">
+        <v>6551</v>
+      </c>
+      <c r="V473" s="26">
+        <v>7069</v>
+      </c>
+      <c r="W473" s="26">
+        <v>6704</v>
+      </c>
+      <c r="X473" s="26">
+        <v>5898</v>
+      </c>
+      <c r="Y473" s="21">
+        <f t="shared" si="100"/>
+        <v>6567.6</v>
+      </c>
+      <c r="Z473" s="21">
+        <f t="shared" si="101"/>
+        <v>6583.5</v>
+      </c>
+      <c r="AA473" s="21">
+        <f t="shared" si="103"/>
+        <v>6557</v>
+      </c>
+      <c r="AB473" s="26"/>
+      <c r="AC473" s="21"/>
+      <c r="AD473" s="21"/>
+      <c r="AE473" s="21"/>
+      <c r="AF473" s="26"/>
+      <c r="AG473" s="26"/>
+      <c r="AH473" s="26"/>
+      <c r="AI473" s="26"/>
+      <c r="AJ473" s="26"/>
+      <c r="AK473" s="21"/>
+    </row>
+    <row r="474" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E474" s="21"/>
+      <c r="F474" s="21">
+        <v>9</v>
+      </c>
+      <c r="G474" s="21">
+        <f t="shared" si="97"/>
+        <v>7.5070277123839464E-3</v>
+      </c>
+      <c r="H474" s="26">
+        <v>93445</v>
+      </c>
+      <c r="I474" s="26">
+        <v>73556</v>
+      </c>
+      <c r="J474" s="26">
+        <v>510562</v>
+      </c>
+      <c r="K474" s="26">
+        <v>838215</v>
+      </c>
+      <c r="L474" s="26">
+        <v>557731</v>
+      </c>
+      <c r="M474" s="21">
+        <f t="shared" si="98"/>
+        <v>414701.8</v>
+      </c>
+      <c r="N474" s="21">
+        <f t="shared" si="99"/>
+        <v>83500.5</v>
+      </c>
+      <c r="O474" s="21">
+        <f t="shared" si="102"/>
+        <v>635502.66666666663</v>
+      </c>
+      <c r="P474" s="26"/>
+      <c r="Q474" s="26"/>
+      <c r="R474" s="26"/>
+      <c r="S474" s="21"/>
+      <c r="T474" s="26">
+        <v>6991</v>
+      </c>
+      <c r="U474" s="26">
+        <v>9430</v>
+      </c>
+      <c r="V474" s="26">
+        <v>7199</v>
+      </c>
+      <c r="W474" s="26">
+        <v>7033</v>
+      </c>
+      <c r="X474" s="26">
+        <v>6297</v>
+      </c>
+      <c r="Y474" s="21">
+        <f t="shared" si="100"/>
+        <v>7390</v>
+      </c>
+      <c r="Z474" s="21">
+        <f t="shared" si="101"/>
+        <v>8210.5</v>
+      </c>
+      <c r="AA474" s="21">
+        <f t="shared" si="103"/>
+        <v>6843</v>
+      </c>
+      <c r="AB474" s="26"/>
+      <c r="AC474" s="21"/>
+      <c r="AD474" s="21"/>
+      <c r="AE474" s="21"/>
+      <c r="AF474" s="26"/>
+      <c r="AG474" s="26"/>
+      <c r="AH474" s="26"/>
+      <c r="AI474" s="26"/>
+      <c r="AJ474" s="26"/>
+      <c r="AK474" s="21"/>
+    </row>
+    <row r="475" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E475" s="21"/>
+      <c r="F475" s="21">
+        <v>8</v>
+      </c>
+      <c r="G475" s="21">
+        <f t="shared" si="97"/>
+        <v>1.3836763459105538E-2</v>
+      </c>
+      <c r="H475" s="26">
+        <v>185337</v>
+      </c>
+      <c r="I475" s="26">
+        <v>163173</v>
+      </c>
+      <c r="J475" s="26">
+        <v>827425</v>
+      </c>
+      <c r="K475" s="26">
+        <v>1614068</v>
+      </c>
+      <c r="L475" s="26">
+        <v>827620</v>
+      </c>
+      <c r="M475" s="21">
+        <f t="shared" si="98"/>
+        <v>723524.6</v>
+      </c>
+      <c r="N475" s="21">
+        <f t="shared" si="99"/>
+        <v>174255</v>
+      </c>
+      <c r="O475" s="21">
+        <f t="shared" si="102"/>
+        <v>1089704.3333333333</v>
+      </c>
+      <c r="P475" s="26"/>
+      <c r="Q475" s="26"/>
+      <c r="R475" s="26"/>
+      <c r="S475" s="21"/>
+      <c r="T475" s="26">
+        <v>6624</v>
+      </c>
+      <c r="U475" s="26">
+        <v>9431</v>
+      </c>
+      <c r="V475" s="26">
+        <v>7146</v>
+      </c>
+      <c r="W475" s="26">
+        <v>9403</v>
+      </c>
+      <c r="X475" s="26">
+        <v>5541</v>
+      </c>
+      <c r="Y475" s="21">
+        <f t="shared" si="100"/>
+        <v>7629</v>
+      </c>
+      <c r="Z475" s="21">
+        <f t="shared" si="101"/>
+        <v>8027.5</v>
+      </c>
+      <c r="AA475" s="21">
+        <f t="shared" si="103"/>
+        <v>7363.333333333333</v>
+      </c>
+      <c r="AB475" s="26"/>
+      <c r="AC475" s="21"/>
+      <c r="AD475" s="21"/>
+      <c r="AE475" s="21"/>
+      <c r="AF475" s="26"/>
+      <c r="AG475" s="26"/>
+      <c r="AH475" s="26"/>
+      <c r="AI475" s="26"/>
+      <c r="AJ475" s="26"/>
+      <c r="AK475" s="21"/>
+    </row>
+    <row r="476" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E476" s="21"/>
+      <c r="F476" s="21">
+        <v>7</v>
+      </c>
+      <c r="G476" s="21">
+        <f t="shared" si="97"/>
+        <v>2.5503572167104624E-2</v>
+      </c>
+      <c r="H476" s="26">
+        <v>346125</v>
+      </c>
+      <c r="I476" s="26">
+        <v>344259</v>
+      </c>
+      <c r="J476" s="26">
+        <v>1216323</v>
+      </c>
+      <c r="K476" s="26">
+        <v>2369169</v>
+      </c>
+      <c r="L476" s="26">
+        <v>1442779</v>
+      </c>
+      <c r="M476" s="21">
+        <f t="shared" si="98"/>
+        <v>1143731</v>
+      </c>
+      <c r="N476" s="21">
+        <f t="shared" si="99"/>
+        <v>345192</v>
+      </c>
+      <c r="O476" s="21">
+        <f t="shared" si="102"/>
+        <v>1676090.3333333333</v>
+      </c>
+      <c r="P476" s="26"/>
+      <c r="Q476" s="26"/>
+      <c r="R476" s="26"/>
+      <c r="S476" s="21"/>
+      <c r="T476" s="26">
+        <v>7742</v>
+      </c>
+      <c r="U476" s="26">
+        <v>11853</v>
+      </c>
+      <c r="V476" s="26">
+        <v>6633</v>
+      </c>
+      <c r="W476" s="26">
+        <v>5094</v>
+      </c>
+      <c r="X476" s="26">
+        <v>6609</v>
+      </c>
+      <c r="Y476" s="21">
+        <f t="shared" si="100"/>
+        <v>7586.2</v>
+      </c>
+      <c r="Z476" s="21">
+        <f t="shared" si="101"/>
+        <v>9797.5</v>
+      </c>
+      <c r="AA476" s="21">
+        <f t="shared" si="103"/>
+        <v>6112</v>
+      </c>
+      <c r="AB476" s="26"/>
+      <c r="AC476" s="21"/>
+      <c r="AD476" s="21"/>
+      <c r="AE476" s="21"/>
+      <c r="AF476" s="26"/>
+      <c r="AG476" s="26"/>
+      <c r="AH476" s="26"/>
+      <c r="AI476" s="26"/>
+      <c r="AJ476" s="26"/>
+      <c r="AK476" s="21"/>
+    </row>
+    <row r="477" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E477" s="21"/>
+      <c r="F477" s="21">
+        <v>6</v>
+      </c>
+      <c r="G477" s="21">
+        <f t="shared" si="97"/>
+        <v>4.7007538663579922E-2</v>
+      </c>
+      <c r="H477" s="26">
+        <v>819373</v>
+      </c>
+      <c r="I477" s="26">
+        <v>742058</v>
+      </c>
+      <c r="J477" s="26">
+        <v>1877388</v>
+      </c>
+      <c r="K477" s="26">
+        <v>2847276</v>
+      </c>
+      <c r="L477" s="26">
+        <v>2195678</v>
+      </c>
+      <c r="M477" s="21">
+        <f t="shared" si="98"/>
+        <v>1696354.6</v>
+      </c>
+      <c r="N477" s="21">
+        <f t="shared" si="99"/>
+        <v>780715.5</v>
+      </c>
+      <c r="O477" s="21">
+        <f t="shared" si="102"/>
+        <v>2306780.6666666665</v>
+      </c>
+      <c r="P477" s="26"/>
+      <c r="Q477" s="26"/>
+      <c r="R477" s="26"/>
+      <c r="S477" s="21"/>
+      <c r="T477" s="26">
+        <v>8186</v>
+      </c>
+      <c r="U477" s="26">
+        <v>19626</v>
+      </c>
+      <c r="V477" s="26">
+        <v>5381</v>
+      </c>
+      <c r="W477" s="26">
+        <v>5182</v>
+      </c>
+      <c r="X477" s="26">
+        <v>5058</v>
+      </c>
+      <c r="Y477" s="21">
+        <f t="shared" si="100"/>
+        <v>8686.6</v>
+      </c>
+      <c r="Z477" s="21">
+        <f t="shared" si="101"/>
+        <v>13906</v>
+      </c>
+      <c r="AA477" s="21">
+        <f t="shared" si="103"/>
+        <v>5207</v>
+      </c>
+      <c r="AB477" s="26"/>
+      <c r="AC477" s="21"/>
+      <c r="AD477" s="21"/>
+      <c r="AE477" s="21"/>
+      <c r="AF477" s="26"/>
+      <c r="AG477" s="26"/>
+      <c r="AH477" s="26"/>
+      <c r="AI477" s="26"/>
+      <c r="AJ477" s="26"/>
+      <c r="AK477" s="21"/>
+    </row>
+    <row r="478" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E478" s="21"/>
+      <c r="F478" s="21">
+        <v>5</v>
+      </c>
+      <c r="G478" s="21">
+        <f t="shared" si="97"/>
+        <v>8.6643105394393308E-2</v>
+      </c>
+      <c r="H478" s="26">
+        <v>1350935</v>
+      </c>
+      <c r="I478" s="26">
+        <v>1264199</v>
+      </c>
+      <c r="J478" s="26">
+        <v>2303562</v>
+      </c>
+      <c r="K478" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="L478" s="26">
+        <v>2422250</v>
+      </c>
+      <c r="M478" s="21">
+        <f t="shared" si="98"/>
+        <v>2092939.2</v>
+      </c>
+      <c r="N478" s="21">
+        <f t="shared" si="99"/>
+        <v>1307567</v>
+      </c>
+      <c r="O478" s="21">
+        <f t="shared" si="102"/>
+        <v>2616520.6666666665</v>
+      </c>
+      <c r="P478" s="21"/>
+      <c r="Q478" s="21"/>
+      <c r="R478" s="21"/>
+      <c r="S478" s="21"/>
+      <c r="T478" s="26">
+        <v>5775</v>
+      </c>
+      <c r="U478" s="26">
+        <v>9594</v>
+      </c>
+      <c r="V478" s="26">
+        <v>5039</v>
+      </c>
+      <c r="W478" s="26">
+        <v>4997</v>
+      </c>
+      <c r="X478" s="26">
+        <v>5173</v>
+      </c>
+      <c r="Y478" s="21">
+        <f t="shared" si="100"/>
+        <v>6115.6</v>
+      </c>
+      <c r="Z478" s="21">
+        <f t="shared" si="101"/>
+        <v>7684.5</v>
+      </c>
+      <c r="AA478" s="21">
+        <f t="shared" si="103"/>
+        <v>5069.666666666667</v>
+      </c>
+      <c r="AB478" s="21"/>
+      <c r="AC478" s="21"/>
+      <c r="AD478" s="21"/>
+      <c r="AE478" s="21"/>
+      <c r="AF478" s="21"/>
+      <c r="AG478" s="21"/>
+      <c r="AH478" s="21"/>
+      <c r="AI478" s="21"/>
+      <c r="AJ478" s="21"/>
+      <c r="AK478" s="21"/>
+    </row>
+    <row r="479" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E479" s="21"/>
+      <c r="F479" s="21">
+        <v>4</v>
+      </c>
+      <c r="G479" s="21">
+        <f t="shared" si="97"/>
+        <v>0.15969837872409545</v>
+      </c>
+      <c r="H479" s="26">
+        <v>1844246</v>
+      </c>
+      <c r="I479" s="26">
+        <v>1502317</v>
+      </c>
+      <c r="J479" s="26">
+        <v>2919309</v>
+      </c>
+      <c r="K479" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="L479" s="26">
+        <v>2900388</v>
+      </c>
+      <c r="M479" s="21">
+        <f t="shared" si="98"/>
+        <v>2458002</v>
+      </c>
+      <c r="N479" s="21">
+        <f t="shared" si="99"/>
+        <v>1673281.5</v>
+      </c>
+      <c r="O479" s="21">
+        <f t="shared" si="102"/>
+        <v>2981149</v>
+      </c>
+      <c r="P479" s="21"/>
+      <c r="Q479" s="21"/>
+      <c r="R479" s="21"/>
+      <c r="S479" s="21"/>
+      <c r="T479" s="26">
+        <v>6312</v>
+      </c>
+      <c r="U479" s="26">
+        <v>7358</v>
+      </c>
+      <c r="V479" s="26">
+        <v>5008</v>
+      </c>
+      <c r="W479" s="26">
+        <v>4997</v>
+      </c>
+      <c r="X479" s="26">
+        <v>5046</v>
+      </c>
+      <c r="Y479" s="21">
+        <f t="shared" si="100"/>
+        <v>5744.2</v>
+      </c>
+      <c r="Z479" s="21">
+        <f t="shared" si="101"/>
+        <v>6835</v>
+      </c>
+      <c r="AA479" s="21">
+        <f t="shared" si="103"/>
+        <v>5017</v>
+      </c>
+      <c r="AB479" s="21"/>
+      <c r="AC479" s="21"/>
+      <c r="AD479" s="21"/>
+      <c r="AE479" s="21"/>
+      <c r="AF479" s="21"/>
+      <c r="AG479" s="21"/>
+      <c r="AH479" s="21"/>
+      <c r="AI479" s="21"/>
+      <c r="AJ479" s="21"/>
+      <c r="AK479" s="21"/>
+    </row>
+    <row r="480" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E480" s="21"/>
+      <c r="F480" s="21">
+        <v>3</v>
+      </c>
+      <c r="G480" s="21">
+        <f t="shared" si="97"/>
+        <v>0.29435200932623734</v>
+      </c>
+      <c r="H480" s="26">
+        <v>2587325</v>
+      </c>
+      <c r="I480" s="26">
+        <v>1813291</v>
+      </c>
+      <c r="J480" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="K480" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="L480" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="M480" s="21">
+        <f t="shared" si="98"/>
+        <v>2754373.2</v>
+      </c>
+      <c r="N480" s="21">
+        <f t="shared" si="99"/>
+        <v>2200308</v>
+      </c>
+      <c r="O480" s="21">
+        <f t="shared" si="102"/>
+        <v>3123750</v>
+      </c>
+      <c r="P480" s="21"/>
+      <c r="Q480" s="21"/>
+      <c r="R480" s="21"/>
+      <c r="S480" s="21"/>
+      <c r="T480" s="26">
+        <v>6462</v>
+      </c>
+      <c r="U480" s="26">
+        <v>7532</v>
+      </c>
+      <c r="V480" s="26">
+        <v>4997</v>
+      </c>
+      <c r="W480" s="26">
+        <v>4997</v>
+      </c>
+      <c r="X480" s="26">
+        <v>4997</v>
+      </c>
+      <c r="Y480" s="21">
+        <f t="shared" si="100"/>
+        <v>5797</v>
+      </c>
+      <c r="Z480" s="21">
+        <f t="shared" si="101"/>
+        <v>6997</v>
+      </c>
+      <c r="AA480" s="21">
+        <f t="shared" si="103"/>
+        <v>4997</v>
+      </c>
+      <c r="AB480" s="21"/>
+      <c r="AC480" s="21"/>
+      <c r="AD480" s="21"/>
+      <c r="AE480" s="21"/>
+      <c r="AF480" s="21"/>
+      <c r="AG480" s="21"/>
+      <c r="AH480" s="21"/>
+      <c r="AI480" s="21"/>
+      <c r="AJ480" s="21"/>
+      <c r="AK480" s="21"/>
+    </row>
+    <row r="481" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E481" s="21"/>
+      <c r="F481" s="21">
+        <v>2</v>
+      </c>
+      <c r="G481" s="21">
+        <f t="shared" si="97"/>
+        <v>0.54254217285501161</v>
+      </c>
+      <c r="H481" s="26">
+        <v>3089569</v>
+      </c>
+      <c r="I481" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="J481" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="K481" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="L481" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="M481" s="21">
+        <f t="shared" si="98"/>
+        <v>3116913.8</v>
+      </c>
+      <c r="N481" s="21">
+        <f t="shared" si="99"/>
+        <v>3106659.5</v>
+      </c>
+      <c r="O481" s="21">
+        <f t="shared" si="102"/>
+        <v>3123750</v>
+      </c>
+      <c r="P481" s="21"/>
+      <c r="Q481" s="21"/>
+      <c r="R481" s="21"/>
+      <c r="S481" s="21"/>
+      <c r="T481" s="26">
+        <v>4997</v>
+      </c>
+      <c r="U481" s="26">
+        <v>4997</v>
+      </c>
+      <c r="V481" s="26">
+        <v>4997</v>
+      </c>
+      <c r="W481" s="26">
+        <v>4997</v>
+      </c>
+      <c r="X481" s="26">
+        <v>4997</v>
+      </c>
+      <c r="Y481" s="21">
+        <f t="shared" si="100"/>
+        <v>4997</v>
+      </c>
+      <c r="Z481" s="21">
+        <f t="shared" si="101"/>
+        <v>4997</v>
+      </c>
+      <c r="AA481" s="21">
+        <f t="shared" si="103"/>
+        <v>4997</v>
+      </c>
+      <c r="AB481" s="21"/>
+      <c r="AC481" s="21"/>
+      <c r="AD481" s="21"/>
+      <c r="AE481" s="21"/>
+      <c r="AF481" s="21"/>
+      <c r="AG481" s="21"/>
+      <c r="AH481" s="21"/>
+      <c r="AI481" s="21"/>
+      <c r="AJ481" s="21"/>
+      <c r="AK481" s="21"/>
+    </row>
+    <row r="482" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E482" s="21"/>
+      <c r="F482" s="21">
+        <v>1</v>
+      </c>
+      <c r="G482" s="21">
+        <f>1 / (((200 * 1024)^(1/20))^(F482 - 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H482" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="I482" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="J482" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="K482" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="L482" s="26">
+        <v>3123750</v>
+      </c>
+      <c r="M482" s="21">
+        <f t="shared" si="98"/>
+        <v>3123750</v>
+      </c>
+      <c r="N482" s="21">
+        <f t="shared" si="99"/>
+        <v>3123750</v>
+      </c>
+      <c r="O482" s="21">
+        <f t="shared" si="102"/>
+        <v>3123750</v>
+      </c>
+      <c r="P482" s="21"/>
+      <c r="Q482" s="21"/>
+      <c r="R482" s="21"/>
+      <c r="S482" s="21"/>
+      <c r="T482" s="26">
+        <v>4997</v>
+      </c>
+      <c r="U482" s="26">
+        <v>4997</v>
+      </c>
+      <c r="V482" s="26">
+        <v>4997</v>
+      </c>
+      <c r="W482" s="26">
+        <v>4997</v>
+      </c>
+      <c r="X482" s="26">
+        <v>4997</v>
+      </c>
+      <c r="Y482" s="21">
+        <f t="shared" si="100"/>
+        <v>4997</v>
+      </c>
+      <c r="Z482" s="21">
+        <f t="shared" si="101"/>
+        <v>4997</v>
+      </c>
+      <c r="AA482" s="21">
+        <f t="shared" si="103"/>
+        <v>4997</v>
+      </c>
+      <c r="AB482" s="21"/>
+      <c r="AC482" s="21"/>
+      <c r="AD482" s="21"/>
+      <c r="AE482" s="21"/>
+      <c r="AF482" s="21"/>
+      <c r="AG482" s="21"/>
+      <c r="AH482" s="21"/>
+      <c r="AI482" s="21"/>
+      <c r="AJ482" s="21"/>
+      <c r="AK482" s="21"/>
+    </row>
+    <row r="483" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E483" s="21"/>
+      <c r="F483" s="21"/>
+      <c r="G483" s="21"/>
+      <c r="H483" s="21"/>
+      <c r="I483" s="21"/>
+      <c r="J483" s="21"/>
+      <c r="K483" s="21"/>
+      <c r="L483" s="21"/>
+      <c r="M483" s="21"/>
+      <c r="N483" s="21"/>
+      <c r="O483" s="21"/>
+      <c r="P483" s="21"/>
+      <c r="Q483" s="21"/>
+      <c r="R483" s="21"/>
+      <c r="S483" s="21"/>
+      <c r="T483" s="21"/>
+      <c r="U483" s="21"/>
+      <c r="V483" s="21"/>
+      <c r="W483" s="21"/>
+      <c r="X483" s="21"/>
+      <c r="Y483" s="21"/>
+      <c r="Z483" s="21"/>
+      <c r="AA483" s="21"/>
+      <c r="AB483" s="21"/>
+      <c r="AC483" s="21"/>
+      <c r="AD483" s="21"/>
+      <c r="AE483" s="21"/>
+      <c r="AF483" s="21"/>
+      <c r="AG483" s="21"/>
+      <c r="AH483" s="21"/>
+      <c r="AI483" s="21"/>
+      <c r="AJ483" s="21"/>
+      <c r="AK483" s="21"/>
+    </row>
+    <row r="484" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E484" s="21"/>
+      <c r="F484" s="21"/>
+      <c r="G484" s="21"/>
+      <c r="H484" s="21"/>
+      <c r="I484" s="21"/>
+      <c r="J484" s="21"/>
+      <c r="K484" s="21"/>
+      <c r="L484" s="21"/>
+      <c r="M484" s="21"/>
+      <c r="N484" s="21"/>
+      <c r="O484" s="21"/>
+      <c r="P484" s="21"/>
+      <c r="Q484" s="21"/>
+      <c r="R484" s="21"/>
+      <c r="S484" s="21"/>
+      <c r="T484" s="21"/>
+      <c r="U484" s="21"/>
+      <c r="V484" s="21"/>
+      <c r="W484" s="21"/>
+      <c r="X484" s="21"/>
+      <c r="Y484" s="21"/>
+      <c r="Z484" s="21"/>
+      <c r="AA484" s="21"/>
+      <c r="AB484" s="21"/>
+      <c r="AC484" s="21"/>
+      <c r="AD484" s="21"/>
+      <c r="AE484" s="21"/>
+      <c r="AF484" s="21"/>
+      <c r="AG484" s="21"/>
+      <c r="AH484" s="21"/>
+      <c r="AI484" s="21"/>
+      <c r="AJ484" s="21"/>
+      <c r="AK484" s="21"/>
+    </row>
+    <row r="485" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E485" s="21"/>
+      <c r="F485" s="21"/>
+      <c r="G485" s="21"/>
+      <c r="H485" s="21"/>
+      <c r="I485" s="21"/>
+      <c r="J485" s="21"/>
+      <c r="K485" s="21"/>
+      <c r="L485" s="21"/>
+      <c r="M485" s="21"/>
+      <c r="N485" s="21"/>
+      <c r="O485" s="21"/>
+      <c r="P485" s="21"/>
+      <c r="Q485" s="21"/>
+      <c r="R485" s="21"/>
+      <c r="S485" s="21"/>
+      <c r="T485" s="21"/>
+      <c r="U485" s="21"/>
+      <c r="V485" s="21"/>
+      <c r="W485" s="21"/>
+      <c r="X485" s="21"/>
+      <c r="Y485" s="21"/>
+      <c r="Z485" s="21"/>
+      <c r="AA485" s="21"/>
+      <c r="AB485" s="21"/>
+      <c r="AC485" s="21"/>
+      <c r="AD485" s="21"/>
+      <c r="AE485" s="21"/>
+      <c r="AF485" s="21"/>
+      <c r="AG485" s="21"/>
+      <c r="AH485" s="21"/>
+      <c r="AI485" s="21"/>
+      <c r="AJ485" s="21"/>
+      <c r="AK485" s="21"/>
+    </row>
+    <row r="486" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E486" s="21"/>
+      <c r="F486" s="21"/>
+      <c r="G486" s="21"/>
+      <c r="H486" s="21"/>
+      <c r="I486" s="21"/>
+      <c r="J486" s="21"/>
+      <c r="K486" s="21"/>
+      <c r="L486" s="21"/>
+      <c r="M486" s="21"/>
+      <c r="N486" s="21"/>
+      <c r="O486" s="21"/>
+      <c r="P486" s="21"/>
+      <c r="Q486" s="21"/>
+      <c r="R486" s="21"/>
+      <c r="S486" s="21"/>
+      <c r="T486" s="21"/>
+      <c r="U486" s="21"/>
+      <c r="V486" s="21"/>
+      <c r="W486" s="21"/>
+      <c r="X486" s="21"/>
+      <c r="Y486" s="21"/>
+      <c r="Z486" s="21"/>
+      <c r="AA486" s="21"/>
+      <c r="AB486" s="21"/>
+      <c r="AC486" s="21"/>
+      <c r="AD486" s="21"/>
+      <c r="AE486" s="21"/>
+      <c r="AF486" s="21"/>
+      <c r="AG486" s="21"/>
+      <c r="AH486" s="21"/>
+      <c r="AI486" s="21"/>
+      <c r="AJ486" s="21"/>
+      <c r="AK486" s="21"/>
+    </row>
+    <row r="487" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E487" s="21"/>
+      <c r="F487" s="21"/>
+      <c r="G487" s="21"/>
+      <c r="H487" s="21"/>
+      <c r="I487" s="21"/>
+      <c r="J487" s="21"/>
+      <c r="K487" s="21"/>
+      <c r="L487" s="21"/>
+      <c r="M487" s="21"/>
+      <c r="N487" s="21"/>
+      <c r="O487" s="21"/>
+      <c r="P487" s="21"/>
+      <c r="Q487" s="21"/>
+      <c r="R487" s="21"/>
+      <c r="S487" s="21"/>
+      <c r="T487" s="21"/>
+      <c r="U487" s="21"/>
+      <c r="V487" s="21"/>
+      <c r="W487" s="21"/>
+      <c r="X487" s="21"/>
+      <c r="Y487" s="21"/>
+      <c r="Z487" s="21"/>
+      <c r="AA487" s="21"/>
+      <c r="AB487" s="21"/>
+      <c r="AC487" s="21"/>
+      <c r="AD487" s="21"/>
+      <c r="AE487" s="21"/>
+      <c r="AF487" s="21"/>
+      <c r="AG487" s="21"/>
+      <c r="AH487" s="21"/>
+      <c r="AI487" s="21"/>
+      <c r="AJ487" s="21"/>
+      <c r="AK487" s="21"/>
+    </row>
+    <row r="488" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E488" s="26"/>
+      <c r="F488" s="21"/>
+      <c r="G488" s="21"/>
+      <c r="H488" s="21"/>
+      <c r="I488" s="21"/>
+      <c r="J488" s="21"/>
+      <c r="K488" s="21"/>
+      <c r="L488" s="21"/>
+      <c r="M488" s="21"/>
+      <c r="N488" s="21"/>
+      <c r="O488" s="21"/>
+      <c r="P488" s="21"/>
+      <c r="Q488" s="21"/>
+      <c r="R488" s="21"/>
+      <c r="S488" s="21"/>
+      <c r="T488" s="21"/>
+      <c r="U488" s="21"/>
+      <c r="V488" s="21"/>
+      <c r="W488" s="21"/>
+      <c r="X488" s="21"/>
+      <c r="Y488" s="21"/>
+      <c r="Z488" s="21"/>
+      <c r="AA488" s="21"/>
+      <c r="AB488" s="21"/>
+      <c r="AC488" s="21"/>
+      <c r="AD488" s="21"/>
+      <c r="AE488" s="21"/>
+      <c r="AF488" s="21"/>
+      <c r="AG488" s="21"/>
+      <c r="AH488" s="21"/>
+      <c r="AI488" s="21"/>
+      <c r="AJ488" s="21"/>
+      <c r="AK488" s="21"/>
+    </row>
+    <row r="489" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E489" s="26"/>
+      <c r="F489" s="21"/>
+      <c r="G489" s="21"/>
+      <c r="H489" s="21"/>
+      <c r="I489" s="21"/>
+      <c r="J489" s="21"/>
+      <c r="K489" s="21"/>
+      <c r="L489" s="21"/>
+      <c r="M489" s="21"/>
+      <c r="N489" s="21"/>
+      <c r="O489" s="21"/>
+      <c r="P489" s="21"/>
+      <c r="Q489" s="21"/>
+      <c r="R489" s="21"/>
+      <c r="S489" s="21"/>
+      <c r="T489" s="21"/>
+      <c r="U489" s="21"/>
+      <c r="V489" s="21"/>
+      <c r="W489" s="21"/>
+      <c r="X489" s="21"/>
+      <c r="Y489" s="21"/>
+      <c r="Z489" s="21"/>
+      <c r="AA489" s="21"/>
+      <c r="AB489" s="21"/>
+      <c r="AC489" s="21"/>
+      <c r="AD489" s="21"/>
+      <c r="AE489" s="21"/>
+      <c r="AF489" s="21"/>
+      <c r="AG489" s="21"/>
+      <c r="AH489" s="21"/>
+      <c r="AI489" s="21"/>
+      <c r="AJ489" s="21"/>
+      <c r="AK489" s="21"/>
+    </row>
+    <row r="490" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E490" s="26"/>
+      <c r="F490" s="21"/>
+      <c r="G490" s="21"/>
+      <c r="H490" s="21"/>
+      <c r="I490" s="21"/>
+      <c r="J490" s="21"/>
+      <c r="K490" s="21"/>
+      <c r="L490" s="21"/>
+      <c r="M490" s="21"/>
+      <c r="N490" s="21"/>
+      <c r="O490" s="21"/>
+      <c r="P490" s="21"/>
+      <c r="Q490" s="21"/>
+      <c r="R490" s="21"/>
+      <c r="S490" s="21"/>
+      <c r="T490" s="21"/>
+      <c r="U490" s="21"/>
+      <c r="V490" s="21"/>
+      <c r="W490" s="21"/>
+      <c r="X490" s="21"/>
+      <c r="Y490" s="21"/>
+      <c r="Z490" s="21"/>
+      <c r="AA490" s="21"/>
+      <c r="AB490" s="21"/>
+      <c r="AC490" s="21"/>
+      <c r="AD490" s="21"/>
+      <c r="AE490" s="21"/>
+      <c r="AF490" s="21"/>
+      <c r="AG490" s="21"/>
+      <c r="AH490" s="21"/>
+      <c r="AI490" s="21"/>
+      <c r="AJ490" s="21"/>
+      <c r="AK490" s="21"/>
+    </row>
+    <row r="491" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E491" s="26"/>
+      <c r="F491" s="21"/>
+      <c r="G491" s="21"/>
+      <c r="H491" s="21"/>
+      <c r="I491" s="21"/>
+      <c r="J491" s="21"/>
+      <c r="K491" s="21"/>
+      <c r="L491" s="21"/>
+      <c r="M491" s="21"/>
+      <c r="N491" s="21"/>
+      <c r="O491" s="21"/>
+      <c r="P491" s="21"/>
+      <c r="Q491" s="21"/>
+      <c r="R491" s="21"/>
+      <c r="S491" s="21"/>
+      <c r="T491" s="21"/>
+      <c r="U491" s="21"/>
+      <c r="V491" s="21"/>
+      <c r="W491" s="21"/>
+      <c r="X491" s="21"/>
+      <c r="Y491" s="21"/>
+      <c r="Z491" s="21"/>
+      <c r="AA491" s="21"/>
+      <c r="AB491" s="21"/>
+      <c r="AC491" s="21"/>
+      <c r="AD491" s="21"/>
+      <c r="AE491" s="21"/>
+      <c r="AF491" s="21"/>
+      <c r="AG491" s="21"/>
+      <c r="AH491" s="21"/>
+      <c r="AI491" s="21"/>
+      <c r="AJ491" s="21"/>
+      <c r="AK491" s="21"/>
+    </row>
+    <row r="492" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E492" s="26"/>
+      <c r="F492" s="21"/>
+      <c r="G492" s="21"/>
+      <c r="H492" s="21"/>
+      <c r="I492" s="21"/>
+      <c r="J492" s="21"/>
+      <c r="K492" s="21"/>
+      <c r="L492" s="21"/>
+      <c r="M492" s="21"/>
+      <c r="N492" s="21"/>
+      <c r="O492" s="21"/>
+      <c r="P492" s="21"/>
+      <c r="Q492" s="21"/>
+      <c r="R492" s="21"/>
+      <c r="S492" s="21"/>
+      <c r="T492" s="21"/>
+      <c r="U492" s="21"/>
+      <c r="V492" s="21"/>
+      <c r="W492" s="21"/>
+      <c r="X492" s="21"/>
+      <c r="Y492" s="21"/>
+      <c r="Z492" s="21"/>
+      <c r="AA492" s="21"/>
+      <c r="AB492" s="21"/>
+      <c r="AC492" s="21"/>
+      <c r="AD492" s="21"/>
+      <c r="AE492" s="21"/>
+      <c r="AF492" s="21"/>
+      <c r="AG492" s="21"/>
+      <c r="AH492" s="21"/>
+      <c r="AI492" s="21"/>
+      <c r="AJ492" s="21"/>
+      <c r="AK492" s="21"/>
+    </row>
+    <row r="493" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E493" s="26"/>
+      <c r="F493" s="21"/>
+      <c r="G493" s="21"/>
+      <c r="H493" s="21"/>
+      <c r="I493" s="21"/>
+      <c r="J493" s="21"/>
+      <c r="K493" s="21"/>
+      <c r="L493" s="21"/>
+      <c r="M493" s="21"/>
+      <c r="N493" s="21"/>
+      <c r="O493" s="21"/>
+      <c r="P493" s="21"/>
+      <c r="Q493" s="21"/>
+      <c r="R493" s="21"/>
+      <c r="S493" s="21"/>
+      <c r="T493" s="21"/>
+      <c r="U493" s="21"/>
+      <c r="V493" s="21"/>
+      <c r="W493" s="21"/>
+      <c r="X493" s="21"/>
+      <c r="Y493" s="21"/>
+      <c r="Z493" s="21"/>
+      <c r="AA493" s="21"/>
+      <c r="AB493" s="21"/>
+      <c r="AC493" s="21"/>
+      <c r="AD493" s="21"/>
+      <c r="AE493" s="21"/>
+      <c r="AF493" s="21"/>
+      <c r="AG493" s="21"/>
+      <c r="AH493" s="21"/>
+      <c r="AI493" s="21"/>
+      <c r="AJ493" s="21"/>
+      <c r="AK493" s="21"/>
+    </row>
+    <row r="494" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E494" s="26"/>
+      <c r="F494" s="21"/>
+      <c r="G494" s="21"/>
+      <c r="H494" s="21"/>
+      <c r="I494" s="21"/>
+      <c r="J494" s="21"/>
+      <c r="K494" s="21"/>
+      <c r="L494" s="21"/>
+      <c r="M494" s="21"/>
+      <c r="N494" s="21"/>
+      <c r="O494" s="21"/>
+      <c r="P494" s="21"/>
+      <c r="Q494" s="21"/>
+      <c r="R494" s="21"/>
+      <c r="S494" s="21"/>
+      <c r="T494" s="21"/>
+      <c r="U494" s="21"/>
+      <c r="V494" s="21"/>
+      <c r="W494" s="21"/>
+      <c r="X494" s="21"/>
+      <c r="Y494" s="21"/>
+      <c r="Z494" s="21"/>
+      <c r="AA494" s="21"/>
+      <c r="AB494" s="21"/>
+      <c r="AC494" s="21"/>
+      <c r="AD494" s="21"/>
+      <c r="AE494" s="21"/>
+      <c r="AF494" s="21"/>
+      <c r="AG494" s="21"/>
+      <c r="AH494" s="21"/>
+      <c r="AI494" s="21"/>
+      <c r="AJ494" s="21"/>
+      <c r="AK494" s="21"/>
+    </row>
+    <row r="495" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E495" s="26"/>
+      <c r="F495" s="21"/>
+      <c r="G495" s="21"/>
+      <c r="H495" s="21"/>
+      <c r="I495" s="21"/>
+      <c r="J495" s="21"/>
+      <c r="K495" s="21"/>
+      <c r="L495" s="21"/>
+      <c r="M495" s="21"/>
+      <c r="N495" s="21"/>
+      <c r="O495" s="21"/>
+      <c r="P495" s="21"/>
+      <c r="Q495" s="21"/>
+      <c r="R495" s="21"/>
+      <c r="S495" s="21"/>
+      <c r="T495" s="21"/>
+      <c r="U495" s="21"/>
+      <c r="V495" s="21"/>
+      <c r="W495" s="21"/>
+      <c r="X495" s="21"/>
+      <c r="Y495" s="21"/>
+      <c r="Z495" s="21"/>
+      <c r="AA495" s="21"/>
+      <c r="AB495" s="21"/>
+      <c r="AC495" s="21"/>
+      <c r="AD495" s="21"/>
+      <c r="AE495" s="21"/>
+      <c r="AF495" s="21"/>
+      <c r="AG495" s="21"/>
+      <c r="AH495" s="21"/>
+      <c r="AI495" s="21"/>
+      <c r="AJ495" s="21"/>
+      <c r="AK495" s="21"/>
+    </row>
+    <row r="496" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E496" s="26"/>
+      <c r="F496" s="21"/>
+      <c r="G496" s="21"/>
+      <c r="H496" s="21"/>
+      <c r="I496" s="21"/>
+      <c r="J496" s="21"/>
+      <c r="K496" s="21"/>
+      <c r="L496" s="21"/>
+      <c r="M496" s="21"/>
+      <c r="N496" s="21"/>
+      <c r="O496" s="21"/>
+      <c r="P496" s="21"/>
+      <c r="Q496" s="21"/>
+      <c r="R496" s="21"/>
+      <c r="S496" s="21"/>
+      <c r="T496" s="21"/>
+      <c r="U496" s="21"/>
+      <c r="V496" s="21"/>
+      <c r="W496" s="21"/>
+      <c r="X496" s="21"/>
+      <c r="Y496" s="21"/>
+      <c r="Z496" s="21"/>
+      <c r="AA496" s="21"/>
+      <c r="AB496" s="21"/>
+      <c r="AC496" s="21"/>
+      <c r="AD496" s="21"/>
+      <c r="AE496" s="21"/>
+      <c r="AF496" s="21"/>
+      <c r="AG496" s="21"/>
+      <c r="AH496" s="21"/>
+      <c r="AI496" s="21"/>
+      <c r="AJ496" s="21"/>
+      <c r="AK496" s="21"/>
+    </row>
+    <row r="497" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E497" s="26"/>
+      <c r="F497" s="21"/>
+      <c r="G497" s="21"/>
+      <c r="H497" s="21"/>
+      <c r="I497" s="21"/>
+      <c r="J497" s="21"/>
+      <c r="K497" s="21"/>
+      <c r="L497" s="21"/>
+      <c r="M497" s="21"/>
+      <c r="N497" s="21"/>
+      <c r="O497" s="21"/>
+      <c r="P497" s="21"/>
+      <c r="Q497" s="21"/>
+      <c r="R497" s="21"/>
+      <c r="S497" s="21"/>
+      <c r="T497" s="21"/>
+      <c r="U497" s="21"/>
+      <c r="V497" s="21"/>
+      <c r="W497" s="21"/>
+      <c r="X497" s="21"/>
+      <c r="Y497" s="21"/>
+      <c r="Z497" s="21"/>
+      <c r="AA497" s="21"/>
+      <c r="AB497" s="21"/>
+      <c r="AC497" s="21"/>
+      <c r="AD497" s="21"/>
+      <c r="AE497" s="21"/>
+      <c r="AF497" s="21"/>
+      <c r="AG497" s="21"/>
+      <c r="AH497" s="21"/>
+      <c r="AI497" s="21"/>
+      <c r="AJ497" s="21"/>
+      <c r="AK497" s="21"/>
+    </row>
+    <row r="498" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E498" s="26"/>
+      <c r="F498" s="21"/>
+      <c r="G498" s="21"/>
+      <c r="H498" s="21"/>
+      <c r="I498" s="21"/>
+      <c r="J498" s="21"/>
+      <c r="K498" s="21"/>
+      <c r="L498" s="21"/>
+      <c r="M498" s="21"/>
+      <c r="N498" s="21"/>
+      <c r="O498" s="21"/>
+      <c r="P498" s="21"/>
+      <c r="Q498" s="21"/>
+      <c r="R498" s="21"/>
+      <c r="S498" s="21"/>
+      <c r="T498" s="21"/>
+      <c r="U498" s="21"/>
+      <c r="V498" s="21"/>
+      <c r="W498" s="21"/>
+      <c r="X498" s="21"/>
+      <c r="Y498" s="21"/>
+      <c r="Z498" s="21"/>
+      <c r="AA498" s="21"/>
+      <c r="AB498" s="21"/>
+      <c r="AC498" s="21"/>
+      <c r="AD498" s="21"/>
+      <c r="AE498" s="21"/>
+      <c r="AF498" s="21"/>
+      <c r="AG498" s="21"/>
+      <c r="AH498" s="21"/>
+      <c r="AI498" s="21"/>
+      <c r="AJ498" s="21"/>
+      <c r="AK498" s="21"/>
+    </row>
+    <row r="499" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E499" s="26"/>
+      <c r="F499" s="21"/>
+      <c r="G499" s="21"/>
+      <c r="H499" s="21"/>
+      <c r="I499" s="21"/>
+      <c r="J499" s="21"/>
+      <c r="K499" s="21"/>
+      <c r="L499" s="21"/>
+      <c r="M499" s="21"/>
+      <c r="N499" s="21"/>
+      <c r="O499" s="21"/>
+      <c r="P499" s="21"/>
+      <c r="Q499" s="21"/>
+      <c r="R499" s="21"/>
+      <c r="S499" s="21"/>
+      <c r="T499" s="21"/>
+      <c r="U499" s="21"/>
+      <c r="V499" s="21"/>
+      <c r="W499" s="21"/>
+      <c r="X499" s="21"/>
+      <c r="Y499" s="21"/>
+      <c r="Z499" s="21"/>
+      <c r="AA499" s="21"/>
+      <c r="AB499" s="21"/>
+      <c r="AC499" s="21"/>
+      <c r="AD499" s="21"/>
+      <c r="AE499" s="21"/>
+      <c r="AF499" s="21"/>
+      <c r="AG499" s="21"/>
+      <c r="AH499" s="21"/>
+      <c r="AI499" s="21"/>
+      <c r="AJ499" s="21"/>
+      <c r="AK499" s="21"/>
+    </row>
+    <row r="500" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E500" s="21"/>
+      <c r="F500" s="21"/>
+      <c r="G500" s="21"/>
+      <c r="H500" s="21"/>
+      <c r="I500" s="21"/>
+      <c r="J500" s="21"/>
+      <c r="K500" s="21"/>
+      <c r="L500" s="21"/>
+      <c r="M500" s="21"/>
+      <c r="N500" s="21"/>
+      <c r="O500" s="21"/>
+      <c r="P500" s="21"/>
+      <c r="Q500" s="21"/>
+      <c r="R500" s="21"/>
+      <c r="S500" s="21"/>
+      <c r="T500" s="21"/>
+      <c r="U500" s="21"/>
+      <c r="V500" s="21"/>
+      <c r="W500" s="21"/>
+      <c r="X500" s="21"/>
+      <c r="Y500" s="21"/>
+      <c r="Z500" s="21"/>
+      <c r="AA500" s="21"/>
+      <c r="AB500" s="21"/>
+      <c r="AC500" s="21"/>
+      <c r="AD500" s="21"/>
+      <c r="AE500" s="21"/>
+      <c r="AF500" s="21"/>
+      <c r="AG500" s="21"/>
+      <c r="AH500" s="21"/>
+      <c r="AI500" s="21"/>
+      <c r="AJ500" s="21"/>
+      <c r="AK500" s="21"/>
+    </row>
+    <row r="501" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E501" s="21"/>
+      <c r="F501" s="21"/>
+      <c r="G501" s="21"/>
+      <c r="H501" s="21"/>
+      <c r="I501" s="21"/>
+      <c r="J501" s="21"/>
+      <c r="K501" s="21"/>
+      <c r="L501" s="21"/>
+      <c r="M501" s="21"/>
+      <c r="N501" s="21"/>
+      <c r="O501" s="21"/>
+      <c r="P501" s="21"/>
+      <c r="Q501" s="21"/>
+      <c r="R501" s="21"/>
+      <c r="S501" s="21"/>
+      <c r="T501" s="21"/>
+      <c r="U501" s="21"/>
+      <c r="V501" s="21"/>
+      <c r="W501" s="21"/>
+      <c r="X501" s="21"/>
+      <c r="Y501" s="21"/>
+      <c r="Z501" s="21"/>
+      <c r="AA501" s="21"/>
+      <c r="AB501" s="21"/>
+      <c r="AC501" s="21"/>
+      <c r="AD501" s="21"/>
+      <c r="AE501" s="21"/>
+      <c r="AF501" s="21"/>
+      <c r="AG501" s="21"/>
+      <c r="AH501" s="21"/>
+      <c r="AI501" s="21"/>
+      <c r="AJ501" s="21"/>
+      <c r="AK501" s="21"/>
+    </row>
+    <row r="502" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E502" s="21"/>
+      <c r="F502" s="21"/>
+      <c r="G502" s="21"/>
+      <c r="H502" s="21"/>
+      <c r="I502" s="21"/>
+      <c r="J502" s="21"/>
+      <c r="K502" s="21"/>
+      <c r="L502" s="21"/>
+      <c r="M502" s="21"/>
+      <c r="N502" s="21"/>
+      <c r="O502" s="21"/>
+      <c r="P502" s="21"/>
+      <c r="Q502" s="21"/>
+      <c r="R502" s="21"/>
+      <c r="S502" s="21"/>
+      <c r="T502" s="21"/>
+      <c r="U502" s="21"/>
+      <c r="V502" s="21"/>
+      <c r="W502" s="21"/>
+      <c r="X502" s="21"/>
+      <c r="Y502" s="21"/>
+      <c r="Z502" s="21"/>
+      <c r="AA502" s="21"/>
+      <c r="AB502" s="21"/>
+      <c r="AC502" s="21"/>
+      <c r="AD502" s="21"/>
+      <c r="AE502" s="21"/>
+      <c r="AF502" s="21"/>
+      <c r="AG502" s="21"/>
+      <c r="AH502" s="21"/>
+      <c r="AI502" s="21"/>
+      <c r="AJ502" s="21"/>
+      <c r="AK502" s="21"/>
+    </row>
+    <row r="503" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E503" s="21"/>
+      <c r="F503" s="21"/>
+      <c r="G503" s="21"/>
+      <c r="H503" s="21"/>
+      <c r="I503" s="21"/>
+      <c r="J503" s="21"/>
+      <c r="K503" s="21"/>
+      <c r="L503" s="21"/>
+      <c r="M503" s="21"/>
+      <c r="N503" s="21"/>
+      <c r="O503" s="21"/>
+      <c r="P503" s="21"/>
+      <c r="Q503" s="21"/>
+      <c r="R503" s="21"/>
+      <c r="S503" s="21"/>
+      <c r="T503" s="21"/>
+      <c r="U503" s="21"/>
+      <c r="V503" s="21"/>
+      <c r="W503" s="21"/>
+      <c r="X503" s="21"/>
+      <c r="Y503" s="21"/>
+      <c r="Z503" s="21"/>
+      <c r="AA503" s="21"/>
+      <c r="AB503" s="21"/>
+      <c r="AC503" s="21"/>
+      <c r="AD503" s="21"/>
+      <c r="AE503" s="21"/>
+      <c r="AF503" s="21"/>
+      <c r="AG503" s="21"/>
+      <c r="AH503" s="21"/>
+      <c r="AI503" s="21"/>
+      <c r="AJ503" s="21"/>
+      <c r="AK503" s="21"/>
+    </row>
+    <row r="504" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E504" s="21"/>
+      <c r="F504" s="21"/>
+      <c r="G504" s="21"/>
+      <c r="H504" s="21"/>
+      <c r="I504" s="21"/>
+      <c r="J504" s="21"/>
+      <c r="K504" s="21"/>
+      <c r="L504" s="21"/>
+      <c r="M504" s="21"/>
+      <c r="N504" s="21"/>
+      <c r="O504" s="21"/>
+      <c r="P504" s="21"/>
+      <c r="Q504" s="21"/>
+      <c r="R504" s="21"/>
+      <c r="S504" s="21"/>
+      <c r="T504" s="21"/>
+      <c r="U504" s="21"/>
+      <c r="V504" s="21"/>
+      <c r="W504" s="21"/>
+      <c r="X504" s="21"/>
+      <c r="Y504" s="21"/>
+      <c r="Z504" s="21"/>
+      <c r="AA504" s="21"/>
+      <c r="AB504" s="21"/>
+      <c r="AC504" s="21"/>
+      <c r="AD504" s="21"/>
+      <c r="AE504" s="21"/>
+      <c r="AF504" s="21"/>
+      <c r="AG504" s="21"/>
+      <c r="AH504" s="21"/>
+      <c r="AI504" s="21"/>
+      <c r="AJ504" s="21"/>
+      <c r="AK504" s="21"/>
+    </row>
+    <row r="505" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E505" s="21"/>
+      <c r="F505" s="21"/>
+      <c r="G505" s="21"/>
+      <c r="H505" s="21"/>
+      <c r="I505" s="21"/>
+      <c r="J505" s="21"/>
+      <c r="K505" s="21"/>
+      <c r="L505" s="21"/>
+      <c r="M505" s="21"/>
+      <c r="N505" s="21"/>
+      <c r="O505" s="21"/>
+      <c r="P505" s="21"/>
+      <c r="Q505" s="21"/>
+      <c r="R505" s="21"/>
+      <c r="S505" s="21"/>
+      <c r="T505" s="21"/>
+      <c r="U505" s="21"/>
+      <c r="V505" s="21"/>
+      <c r="W505" s="21"/>
+      <c r="X505" s="21"/>
+      <c r="Y505" s="21"/>
+      <c r="Z505" s="21"/>
+      <c r="AA505" s="21"/>
+      <c r="AB505" s="21"/>
+      <c r="AC505" s="21"/>
+      <c r="AD505" s="21"/>
+      <c r="AE505" s="21"/>
+      <c r="AF505" s="21"/>
+      <c r="AG505" s="21"/>
+      <c r="AH505" s="21"/>
+      <c r="AI505" s="21"/>
+      <c r="AJ505" s="21"/>
+      <c r="AK505" s="21"/>
+    </row>
+    <row r="506" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E506" s="21"/>
+      <c r="F506" s="21"/>
+      <c r="G506" s="21"/>
+      <c r="H506" s="21"/>
+      <c r="I506" s="21"/>
+      <c r="J506" s="21"/>
+      <c r="K506" s="21"/>
+      <c r="L506" s="21"/>
+      <c r="M506" s="21"/>
+      <c r="N506" s="21"/>
+      <c r="O506" s="21"/>
+      <c r="P506" s="21"/>
+      <c r="Q506" s="21"/>
+      <c r="R506" s="21"/>
+      <c r="S506" s="21"/>
+      <c r="T506" s="21"/>
+      <c r="U506" s="21"/>
+      <c r="V506" s="21"/>
+      <c r="W506" s="21"/>
+      <c r="X506" s="21"/>
+      <c r="Y506" s="21"/>
+      <c r="Z506" s="21"/>
+      <c r="AA506" s="21"/>
+      <c r="AB506" s="21"/>
+      <c r="AC506" s="21"/>
+      <c r="AD506" s="21"/>
+      <c r="AE506" s="21"/>
+      <c r="AF506" s="21"/>
+      <c r="AG506" s="21"/>
+      <c r="AH506" s="21"/>
+      <c r="AI506" s="21"/>
+      <c r="AJ506" s="21"/>
+      <c r="AK506" s="21"/>
+    </row>
+    <row r="507" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E507" s="21"/>
+      <c r="F507" s="21"/>
+      <c r="G507" s="21"/>
+      <c r="H507" s="21"/>
+      <c r="I507" s="21"/>
+      <c r="J507" s="21"/>
+      <c r="K507" s="21"/>
+      <c r="L507" s="21"/>
+      <c r="M507" s="21"/>
+      <c r="N507" s="21"/>
+      <c r="O507" s="21"/>
+      <c r="P507" s="21"/>
+      <c r="Q507" s="21"/>
+      <c r="R507" s="21"/>
+      <c r="S507" s="21"/>
+      <c r="T507" s="21"/>
+      <c r="U507" s="21"/>
+      <c r="V507" s="21"/>
+      <c r="W507" s="21"/>
+      <c r="X507" s="21"/>
+      <c r="Y507" s="21"/>
+      <c r="Z507" s="21"/>
+      <c r="AA507" s="21"/>
+      <c r="AB507" s="21"/>
+      <c r="AC507" s="21"/>
+      <c r="AD507" s="21"/>
+      <c r="AE507" s="21"/>
+      <c r="AF507" s="21"/>
+      <c r="AG507" s="21"/>
+      <c r="AH507" s="21"/>
+      <c r="AI507" s="21"/>
+      <c r="AJ507" s="21"/>
+      <c r="AK507" s="21"/>
+    </row>
+    <row r="508" spans="5:37" x14ac:dyDescent="0.25">
+      <c r="E508" s="21"/>
+      <c r="F508" s="21"/>
+      <c r="G508" s="21"/>
+      <c r="H508" s="21"/>
+      <c r="I508" s="21"/>
+      <c r="J508" s="21"/>
+      <c r="K508" s="21"/>
+      <c r="L508" s="21"/>
+      <c r="M508" s="21"/>
+      <c r="N508" s="21"/>
+      <c r="O508" s="21"/>
+      <c r="P508" s="21"/>
+      <c r="Q508" s="21"/>
+      <c r="R508" s="21"/>
+      <c r="S508" s="21"/>
+      <c r="T508" s="21"/>
+      <c r="U508" s="21"/>
+      <c r="V508" s="21"/>
+      <c r="W508" s="21"/>
+      <c r="X508" s="21"/>
+      <c r="Y508" s="21"/>
+      <c r="Z508" s="21"/>
+      <c r="AA508" s="21"/>
+      <c r="AB508" s="21"/>
+      <c r="AC508" s="21"/>
+      <c r="AD508" s="21"/>
+      <c r="AE508" s="21"/>
+      <c r="AF508" s="21"/>
+      <c r="AG508" s="21"/>
+      <c r="AH508" s="21"/>
+      <c r="AI508" s="21"/>
+      <c r="AJ508" s="21"/>
+      <c r="AK508" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="76">
+    <mergeCell ref="AN313:AQ313"/>
+    <mergeCell ref="AS313:AV313"/>
+    <mergeCell ref="H460:M460"/>
+    <mergeCell ref="T460:Y460"/>
+    <mergeCell ref="Z460:AE460"/>
+    <mergeCell ref="AF460:AK460"/>
     <mergeCell ref="DN2:DZ2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
@@ -42437,6 +50349,8 @@
     <mergeCell ref="R256:W256"/>
     <mergeCell ref="AD257:AE257"/>
     <mergeCell ref="AF257:AG257"/>
+    <mergeCell ref="AI313:AL313"/>
+    <mergeCell ref="AD313:AG313"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B38" r:id="rId1" xr:uid="{3AEDC9FB-F7DC-4D75-9265-6D1B1FDD6D3F}"/>
